--- a/breeding_patterns - win, sum/interval from birthday to 1st delivery time/IS- MinIntervals_ByParentBirthSeason_and_MaxYear.xlsx
+++ b/breeding_patterns - win, sum/interval from birthday to 1st delivery time/IS- MinIntervals_ByParentBirthSeason_and_MaxYear.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="475" uniqueCount="475">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="442" uniqueCount="442">
   <si>
     <t xml:space="preserve">Dam</t>
   </si>
@@ -686,6 +686,243 @@
     <t xml:space="preserve">8836</t>
   </si>
   <si>
+    <t xml:space="preserve">914</t>
+  </si>
+  <si>
+    <t xml:space="preserve">915</t>
+  </si>
+  <si>
+    <t xml:space="preserve">918</t>
+  </si>
+  <si>
+    <t xml:space="preserve">920</t>
+  </si>
+  <si>
+    <t xml:space="preserve">921</t>
+  </si>
+  <si>
+    <t xml:space="preserve">923</t>
+  </si>
+  <si>
+    <t xml:space="preserve">08812</t>
+  </si>
+  <si>
+    <t xml:space="preserve">08816</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1053</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1074</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1080</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1215</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1367</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1378</t>
+  </si>
+  <si>
+    <t xml:space="preserve">185</t>
+  </si>
+  <si>
+    <t xml:space="preserve">188</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2352</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2401</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2408</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2602</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2606</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2609</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2611</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2615</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2624</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3260</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3267</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3663</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3667</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3669</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3670</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3927</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3928</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3959</t>
+  </si>
+  <si>
+    <t xml:space="preserve">490</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4988</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4989</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5379</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5439</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5447</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5449</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5450</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5452</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5453</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5459</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5472</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5488</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5494</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5495</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5496</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5502</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5507</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5510</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5676</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5686</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5688</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5689</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5690</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5693</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5698</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5705</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6501</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6505</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6506</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6690</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6692</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6956</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7235</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7283</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7295</t>
+  </si>
+  <si>
+    <t xml:space="preserve">737</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7479</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7488</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7492</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7498</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7749</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7812</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7825</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7836</t>
+  </si>
+  <si>
     <t xml:space="preserve">8844</t>
   </si>
   <si>
@@ -704,313 +941,391 @@
     <t xml:space="preserve">8881</t>
   </si>
   <si>
-    <t xml:space="preserve">9008</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9009</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9011</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9014</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9022</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9024</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9027</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9031</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9048</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9053</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9064</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9067</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9088</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9095</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9115</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9133</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9135</t>
-  </si>
-  <si>
-    <t xml:space="preserve">914</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9140</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9144</t>
-  </si>
-  <si>
-    <t xml:space="preserve">915</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9151</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9153</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9154</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9155</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9160</t>
-  </si>
-  <si>
-    <t xml:space="preserve">918</t>
-  </si>
-  <si>
-    <t xml:space="preserve">920</t>
-  </si>
-  <si>
-    <t xml:space="preserve">921</t>
-  </si>
-  <si>
-    <t xml:space="preserve">923</t>
-  </si>
-  <si>
-    <t xml:space="preserve">08812</t>
-  </si>
-  <si>
-    <t xml:space="preserve">08816</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1053</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1074</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1080</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1215</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1367</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1378</t>
-  </si>
-  <si>
-    <t xml:space="preserve">185</t>
-  </si>
-  <si>
-    <t xml:space="preserve">188</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2352</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2401</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2408</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2602</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2606</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2609</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2611</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2615</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2624</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3260</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3267</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3663</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3667</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3669</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3670</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3927</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3928</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3959</t>
-  </si>
-  <si>
-    <t xml:space="preserve">490</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4988</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4989</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5379</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5439</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5447</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5449</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5450</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5452</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5453</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5459</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5472</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5488</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5494</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5495</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5496</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5502</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5507</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5510</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5676</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5686</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5688</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5689</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5690</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5693</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5698</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5705</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6501</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6505</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6506</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6690</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6692</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6956</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7235</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7283</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7295</t>
-  </si>
-  <si>
-    <t xml:space="preserve">737</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7479</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7488</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7492</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7498</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7749</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7812</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7825</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7836</t>
+    <t xml:space="preserve">933</t>
+  </si>
+  <si>
+    <t xml:space="preserve">947</t>
+  </si>
+  <si>
+    <t xml:space="preserve">948</t>
+  </si>
+  <si>
+    <t xml:space="preserve">955</t>
+  </si>
+  <si>
+    <t xml:space="preserve">956</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1050</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1073</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1079</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1081</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1191</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1236</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1350</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1364</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1376</t>
+  </si>
+  <si>
+    <t xml:space="preserve">138</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1387</t>
+  </si>
+  <si>
+    <t xml:space="preserve">139</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1393</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1397</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1579</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1583</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1587</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1589</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2317</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2320</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2321</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2386</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2387</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2389</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2394</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2395</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2397</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2403</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2404</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2411</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2412</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2416</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2431</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2435</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2436</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2595</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2597</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2605</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2608</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2610</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2612</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2616</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2617</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2618</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2619</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2621</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3266</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3269</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3270</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3274</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3287</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3331</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3931</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3932</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3940</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3944</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3945</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3947</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3949</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3966</t>
+  </si>
+  <si>
+    <t xml:space="preserve">397</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3971</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3973</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3974</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3991</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3992</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3995</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4003</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4009</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4013</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4014</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">403</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4608</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4612</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4658</t>
+  </si>
+  <si>
+    <t xml:space="preserve">489</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4955</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4959</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4979</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4981</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5105</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5109</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5462</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5470</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5680</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5684</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5691</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5700</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5709</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5712</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5714</t>
+  </si>
+  <si>
+    <t xml:space="preserve">644</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6456</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6458</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6463</t>
+  </si>
+  <si>
+    <t xml:space="preserve">648</t>
+  </si>
+  <si>
+    <t xml:space="preserve">653</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6688</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6689</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6696</t>
+  </si>
+  <si>
+    <t xml:space="preserve">703</t>
+  </si>
+  <si>
+    <t xml:space="preserve">707</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7238</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7241</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7243</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7244</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7294</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7296</t>
+  </si>
+  <si>
+    <t xml:space="preserve">730</t>
+  </si>
+  <si>
+    <t xml:space="preserve">732</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7486</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7750</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7757</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7810</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7837</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8119</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8121</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8130</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8152</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8201</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8207</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8313</t>
   </si>
   <si>
     <t xml:space="preserve">8634</t>
@@ -1020,420 +1335,6 @@
   </si>
   <si>
     <t xml:space="preserve">8728</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8886</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8899</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8900</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8902</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8985</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8988</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8990</t>
-  </si>
-  <si>
-    <t xml:space="preserve">933</t>
-  </si>
-  <si>
-    <t xml:space="preserve">947</t>
-  </si>
-  <si>
-    <t xml:space="preserve">948</t>
-  </si>
-  <si>
-    <t xml:space="preserve">955</t>
-  </si>
-  <si>
-    <t xml:space="preserve">956</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1050</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1073</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1079</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1081</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1191</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1236</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1350</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1364</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1376</t>
-  </si>
-  <si>
-    <t xml:space="preserve">138</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1387</t>
-  </si>
-  <si>
-    <t xml:space="preserve">139</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1393</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1397</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1579</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1583</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1587</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1589</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2317</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2320</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2321</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2386</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2387</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2389</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2394</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2395</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2397</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2403</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2404</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2411</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2412</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2416</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2431</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2435</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2436</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2595</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2597</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2605</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2608</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2610</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2612</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2616</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2617</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2618</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2619</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2621</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3266</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3269</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3270</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3274</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3287</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3331</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3931</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3932</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3940</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3944</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3945</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3947</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3949</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3966</t>
-  </si>
-  <si>
-    <t xml:space="preserve">397</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3971</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3973</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3974</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3991</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3992</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3995</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4003</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4009</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4013</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4014</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4016</t>
-  </si>
-  <si>
-    <t xml:space="preserve">403</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4608</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4612</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4658</t>
-  </si>
-  <si>
-    <t xml:space="preserve">489</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4955</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4959</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4979</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4981</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5105</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5109</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5123</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5462</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5470</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5680</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5684</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5691</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5700</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5709</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5712</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5714</t>
-  </si>
-  <si>
-    <t xml:space="preserve">644</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6456</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6458</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6463</t>
-  </si>
-  <si>
-    <t xml:space="preserve">648</t>
-  </si>
-  <si>
-    <t xml:space="preserve">653</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6688</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6689</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6696</t>
-  </si>
-  <si>
-    <t xml:space="preserve">703</t>
-  </si>
-  <si>
-    <t xml:space="preserve">707</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7238</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7241</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7243</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7244</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7294</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7296</t>
-  </si>
-  <si>
-    <t xml:space="preserve">730</t>
-  </si>
-  <si>
-    <t xml:space="preserve">732</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7486</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7750</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7757</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7810</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7837</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8119</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8121</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8130</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8152</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8201</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8207</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8313</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8921</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8927</t>
   </si>
   <si>
     <t xml:space="preserve">07781</t>
@@ -4856,13 +4757,13 @@
         <v>223</v>
       </c>
       <c r="B221" t="n">
-        <v>2023</v>
+        <v>1999</v>
       </c>
       <c r="C221" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D221" t="n">
-        <v>164</v>
+        <v>437</v>
       </c>
     </row>
     <row r="222">
@@ -4870,13 +4771,13 @@
         <v>224</v>
       </c>
       <c r="B222" t="n">
-        <v>2023</v>
+        <v>1999</v>
       </c>
       <c r="C222" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D222" t="n">
-        <v>158</v>
+        <v>426</v>
       </c>
     </row>
     <row r="223">
@@ -4884,13 +4785,13 @@
         <v>225</v>
       </c>
       <c r="B223" t="n">
-        <v>2023</v>
+        <v>1999</v>
       </c>
       <c r="C223" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D223" t="n">
-        <v>141</v>
+        <v>254</v>
       </c>
     </row>
     <row r="224">
@@ -4898,13 +4799,13 @@
         <v>226</v>
       </c>
       <c r="B224" t="n">
-        <v>2023</v>
+        <v>1999</v>
       </c>
       <c r="C224" t="n">
         <v>2</v>
       </c>
       <c r="D224" t="n">
-        <v>123</v>
+        <v>280</v>
       </c>
     </row>
     <row r="225">
@@ -4912,13 +4813,13 @@
         <v>227</v>
       </c>
       <c r="B225" t="n">
-        <v>2023</v>
+        <v>1999</v>
       </c>
       <c r="C225" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D225" t="n">
-        <v>116</v>
+        <v>398</v>
       </c>
     </row>
     <row r="226">
@@ -4926,432 +4827,12 @@
         <v>228</v>
       </c>
       <c r="B226" t="n">
-        <v>2023</v>
+        <v>1999</v>
       </c>
       <c r="C226" t="n">
         <v>3</v>
       </c>
       <c r="D226" t="n">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="227">
-      <c r="A227" t="s">
-        <v>229</v>
-      </c>
-      <c r="B227" t="n">
-        <v>2023</v>
-      </c>
-      <c r="C227" t="n">
-        <v>10</v>
-      </c>
-      <c r="D227" t="n">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="228">
-      <c r="A228" t="s">
-        <v>230</v>
-      </c>
-      <c r="B228" t="n">
-        <v>2023</v>
-      </c>
-      <c r="C228" t="n">
-        <v>10</v>
-      </c>
-      <c r="D228" t="n">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="229">
-      <c r="A229" t="s">
-        <v>231</v>
-      </c>
-      <c r="B229" t="n">
-        <v>2023</v>
-      </c>
-      <c r="C229" t="n">
-        <v>10</v>
-      </c>
-      <c r="D229" t="n">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="230">
-      <c r="A230" t="s">
-        <v>232</v>
-      </c>
-      <c r="B230" t="n">
-        <v>2023</v>
-      </c>
-      <c r="C230" t="n">
-        <v>10</v>
-      </c>
-      <c r="D230" t="n">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="231">
-      <c r="A231" t="s">
-        <v>233</v>
-      </c>
-      <c r="B231" t="n">
-        <v>2023</v>
-      </c>
-      <c r="C231" t="n">
-        <v>11</v>
-      </c>
-      <c r="D231" t="n">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="232">
-      <c r="A232" t="s">
-        <v>234</v>
-      </c>
-      <c r="B232" t="n">
-        <v>2023</v>
-      </c>
-      <c r="C232" t="n">
-        <v>11</v>
-      </c>
-      <c r="D232" t="n">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="233">
-      <c r="A233" t="s">
-        <v>235</v>
-      </c>
-      <c r="B233" t="n">
-        <v>2023</v>
-      </c>
-      <c r="C233" t="n">
-        <v>11</v>
-      </c>
-      <c r="D233" t="n">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="234">
-      <c r="A234" t="s">
-        <v>236</v>
-      </c>
-      <c r="B234" t="n">
-        <v>2023</v>
-      </c>
-      <c r="C234" t="n">
-        <v>11</v>
-      </c>
-      <c r="D234" t="n">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="235">
-      <c r="A235" t="s">
-        <v>237</v>
-      </c>
-      <c r="B235" t="n">
-        <v>2023</v>
-      </c>
-      <c r="C235" t="n">
-        <v>12</v>
-      </c>
-      <c r="D235" t="n">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="236">
-      <c r="A236" t="s">
-        <v>238</v>
-      </c>
-      <c r="B236" t="n">
-        <v>2023</v>
-      </c>
-      <c r="C236" t="n">
-        <v>12</v>
-      </c>
-      <c r="D236" t="n">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="237">
-      <c r="A237" t="s">
-        <v>239</v>
-      </c>
-      <c r="B237" t="n">
-        <v>2023</v>
-      </c>
-      <c r="C237" t="n">
-        <v>12</v>
-      </c>
-      <c r="D237" t="n">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="238">
-      <c r="A238" t="s">
-        <v>240</v>
-      </c>
-      <c r="B238" t="n">
-        <v>2024</v>
-      </c>
-      <c r="C238" t="n">
-        <v>1</v>
-      </c>
-      <c r="D238" t="n">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="239">
-      <c r="A239" t="s">
-        <v>241</v>
-      </c>
-      <c r="B239" t="n">
-        <v>2024</v>
-      </c>
-      <c r="C239" t="n">
-        <v>1</v>
-      </c>
-      <c r="D239" t="n">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="240">
-      <c r="A240" t="s">
-        <v>242</v>
-      </c>
-      <c r="B240" t="n">
-        <v>2024</v>
-      </c>
-      <c r="C240" t="n">
-        <v>1</v>
-      </c>
-      <c r="D240" t="n">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="241">
-      <c r="A241" t="s">
-        <v>243</v>
-      </c>
-      <c r="B241" t="n">
-        <v>2024</v>
-      </c>
-      <c r="C241" t="n">
-        <v>1</v>
-      </c>
-      <c r="D241" t="n">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="242">
-      <c r="A242" t="s">
-        <v>244</v>
-      </c>
-      <c r="B242" t="n">
-        <v>2024</v>
-      </c>
-      <c r="C242" t="n">
-        <v>2</v>
-      </c>
-      <c r="D242" t="n">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="243">
-      <c r="A243" t="s">
-        <v>245</v>
-      </c>
-      <c r="B243" t="n">
-        <v>2024</v>
-      </c>
-      <c r="C243" t="n">
-        <v>2</v>
-      </c>
-      <c r="D243" t="n">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="244">
-      <c r="A244" t="s">
-        <v>246</v>
-      </c>
-      <c r="B244" t="n">
-        <v>1999</v>
-      </c>
-      <c r="C244" t="n">
-        <v>2</v>
-      </c>
-      <c r="D244" t="n">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="245">
-      <c r="A245" t="s">
-        <v>247</v>
-      </c>
-      <c r="B245" t="n">
-        <v>2024</v>
-      </c>
-      <c r="C245" t="n">
-        <v>2</v>
-      </c>
-      <c r="D245" t="n">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="246">
-      <c r="A246" t="s">
-        <v>248</v>
-      </c>
-      <c r="B246" t="n">
-        <v>2024</v>
-      </c>
-      <c r="C246" t="n">
-        <v>2</v>
-      </c>
-      <c r="D246" t="n">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="247">
-      <c r="A247" t="s">
-        <v>249</v>
-      </c>
-      <c r="B247" t="n">
-        <v>1999</v>
-      </c>
-      <c r="C247" t="n">
-        <v>2</v>
-      </c>
-      <c r="D247" t="n">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="248">
-      <c r="A248" t="s">
-        <v>250</v>
-      </c>
-      <c r="B248" t="n">
-        <v>2024</v>
-      </c>
-      <c r="C248" t="n">
-        <v>2</v>
-      </c>
-      <c r="D248" t="n">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="249">
-      <c r="A249" t="s">
-        <v>251</v>
-      </c>
-      <c r="B249" t="n">
-        <v>2024</v>
-      </c>
-      <c r="C249" t="n">
-        <v>2</v>
-      </c>
-      <c r="D249" t="n">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="250">
-      <c r="A250" t="s">
-        <v>252</v>
-      </c>
-      <c r="B250" t="n">
-        <v>2024</v>
-      </c>
-      <c r="C250" t="n">
-        <v>2</v>
-      </c>
-      <c r="D250" t="n">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="251">
-      <c r="A251" t="s">
-        <v>253</v>
-      </c>
-      <c r="B251" t="n">
-        <v>2024</v>
-      </c>
-      <c r="C251" t="n">
-        <v>2</v>
-      </c>
-      <c r="D251" t="n">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="252">
-      <c r="A252" t="s">
-        <v>254</v>
-      </c>
-      <c r="B252" t="n">
-        <v>2024</v>
-      </c>
-      <c r="C252" t="n">
-        <v>3</v>
-      </c>
-      <c r="D252" t="n">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="253">
-      <c r="A253" t="s">
-        <v>255</v>
-      </c>
-      <c r="B253" t="n">
-        <v>1999</v>
-      </c>
-      <c r="C253" t="n">
-        <v>2</v>
-      </c>
-      <c r="D253" t="n">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="254">
-      <c r="A254" t="s">
-        <v>256</v>
-      </c>
-      <c r="B254" t="n">
-        <v>1999</v>
-      </c>
-      <c r="C254" t="n">
-        <v>2</v>
-      </c>
-      <c r="D254" t="n">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="255">
-      <c r="A255" t="s">
-        <v>257</v>
-      </c>
-      <c r="B255" t="n">
-        <v>1999</v>
-      </c>
-      <c r="C255" t="n">
-        <v>3</v>
-      </c>
-      <c r="D255" t="n">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="256">
-      <c r="A256" t="s">
-        <v>258</v>
-      </c>
-      <c r="B256" t="n">
-        <v>1999</v>
-      </c>
-      <c r="C256" t="n">
-        <v>3</v>
-      </c>
-      <c r="D256" t="n">
         <v>457</v>
       </c>
     </row>
@@ -5385,7 +4866,7 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>259</v>
+        <v>229</v>
       </c>
       <c r="B2"/>
       <c r="C2"/>
@@ -5395,7 +4876,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>260</v>
+        <v>230</v>
       </c>
       <c r="B3"/>
       <c r="C3"/>
@@ -5405,7 +4886,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>261</v>
+        <v>231</v>
       </c>
       <c r="B4" t="n">
         <v>2000</v>
@@ -5419,7 +4900,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>262</v>
+        <v>232</v>
       </c>
       <c r="B5" t="n">
         <v>2000</v>
@@ -5433,7 +4914,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>263</v>
+        <v>233</v>
       </c>
       <c r="B6" t="n">
         <v>2000</v>
@@ -5489,7 +4970,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>264</v>
+        <v>234</v>
       </c>
       <c r="B10" t="n">
         <v>2001</v>
@@ -5601,7 +5082,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>265</v>
+        <v>235</v>
       </c>
       <c r="B18" t="n">
         <v>2002</v>
@@ -5615,7 +5096,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>266</v>
+        <v>236</v>
       </c>
       <c r="B19" t="n">
         <v>2002</v>
@@ -5769,7 +5250,7 @@
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>267</v>
+        <v>237</v>
       </c>
       <c r="B30" t="n">
         <v>1992</v>
@@ -5783,7 +5264,7 @@
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>268</v>
+        <v>238</v>
       </c>
       <c r="B31" t="n">
         <v>1992</v>
@@ -5909,7 +5390,7 @@
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>269</v>
+        <v>239</v>
       </c>
       <c r="B40" t="n">
         <v>2006</v>
@@ -5923,7 +5404,7 @@
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>270</v>
+        <v>240</v>
       </c>
       <c r="B41" t="n">
         <v>2006</v>
@@ -5937,7 +5418,7 @@
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>271</v>
+        <v>241</v>
       </c>
       <c r="B42" t="n">
         <v>2006</v>
@@ -5993,7 +5474,7 @@
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>272</v>
+        <v>242</v>
       </c>
       <c r="B46" t="n">
         <v>2007</v>
@@ -6007,7 +5488,7 @@
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>273</v>
+        <v>243</v>
       </c>
       <c r="B47" t="n">
         <v>2007</v>
@@ -6021,7 +5502,7 @@
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>274</v>
+        <v>244</v>
       </c>
       <c r="B48" t="n">
         <v>2007</v>
@@ -6035,7 +5516,7 @@
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>275</v>
+        <v>245</v>
       </c>
       <c r="B49" t="n">
         <v>2007</v>
@@ -6049,7 +5530,7 @@
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>276</v>
+        <v>246</v>
       </c>
       <c r="B50" t="n">
         <v>2007</v>
@@ -6063,7 +5544,7 @@
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>277</v>
+        <v>247</v>
       </c>
       <c r="B51" t="n">
         <v>2007</v>
@@ -6175,7 +5656,7 @@
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>278</v>
+        <v>248</v>
       </c>
       <c r="B59" t="n">
         <v>2008</v>
@@ -6189,7 +5670,7 @@
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>279</v>
+        <v>249</v>
       </c>
       <c r="B60" t="n">
         <v>2008</v>
@@ -6357,7 +5838,7 @@
     </row>
     <row r="72">
       <c r="A72" t="s">
-        <v>280</v>
+        <v>250</v>
       </c>
       <c r="B72" t="n">
         <v>2009</v>
@@ -6371,7 +5852,7 @@
     </row>
     <row r="73">
       <c r="A73" t="s">
-        <v>281</v>
+        <v>251</v>
       </c>
       <c r="B73" t="n">
         <v>2009</v>
@@ -6385,7 +5866,7 @@
     </row>
     <row r="74">
       <c r="A74" t="s">
-        <v>282</v>
+        <v>252</v>
       </c>
       <c r="B74" t="n">
         <v>2009</v>
@@ -6399,7 +5880,7 @@
     </row>
     <row r="75">
       <c r="A75" t="s">
-        <v>283</v>
+        <v>253</v>
       </c>
       <c r="B75" t="n">
         <v>2009</v>
@@ -6469,7 +5950,7 @@
     </row>
     <row r="80">
       <c r="A80" t="s">
-        <v>284</v>
+        <v>254</v>
       </c>
       <c r="B80" t="n">
         <v>2010</v>
@@ -6483,7 +5964,7 @@
     </row>
     <row r="81">
       <c r="A81" t="s">
-        <v>285</v>
+        <v>255</v>
       </c>
       <c r="B81" t="n">
         <v>2010</v>
@@ -6497,7 +5978,7 @@
     </row>
     <row r="82">
       <c r="A82" t="s">
-        <v>286</v>
+        <v>256</v>
       </c>
       <c r="B82" t="n">
         <v>2010</v>
@@ -6651,7 +6132,7 @@
     </row>
     <row r="93">
       <c r="A93" t="s">
-        <v>287</v>
+        <v>257</v>
       </c>
       <c r="B93" t="n">
         <v>1995</v>
@@ -6665,7 +6146,7 @@
     </row>
     <row r="94">
       <c r="A94" t="s">
-        <v>288</v>
+        <v>258</v>
       </c>
       <c r="B94" t="n">
         <v>2012</v>
@@ -6679,7 +6160,7 @@
     </row>
     <row r="95">
       <c r="A95" t="s">
-        <v>289</v>
+        <v>259</v>
       </c>
       <c r="B95" t="n">
         <v>2012</v>
@@ -6763,7 +6244,7 @@
     </row>
     <row r="101">
       <c r="A101" t="s">
-        <v>290</v>
+        <v>260</v>
       </c>
       <c r="B101" t="n">
         <v>2013</v>
@@ -6777,7 +6258,7 @@
     </row>
     <row r="102">
       <c r="A102" t="s">
-        <v>291</v>
+        <v>261</v>
       </c>
       <c r="B102" t="n">
         <v>2013</v>
@@ -6791,7 +6272,7 @@
     </row>
     <row r="103">
       <c r="A103" t="s">
-        <v>292</v>
+        <v>262</v>
       </c>
       <c r="B103" t="n">
         <v>2013</v>
@@ -6805,7 +6286,7 @@
     </row>
     <row r="104">
       <c r="A104" t="s">
-        <v>293</v>
+        <v>263</v>
       </c>
       <c r="B104" t="n">
         <v>2013</v>
@@ -6819,7 +6300,7 @@
     </row>
     <row r="105">
       <c r="A105" t="s">
-        <v>294</v>
+        <v>264</v>
       </c>
       <c r="B105" t="n">
         <v>2013</v>
@@ -6833,7 +6314,7 @@
     </row>
     <row r="106">
       <c r="A106" t="s">
-        <v>295</v>
+        <v>265</v>
       </c>
       <c r="B106" t="n">
         <v>2013</v>
@@ -6847,7 +6328,7 @@
     </row>
     <row r="107">
       <c r="A107" t="s">
-        <v>296</v>
+        <v>266</v>
       </c>
       <c r="B107" t="n">
         <v>2013</v>
@@ -6861,7 +6342,7 @@
     </row>
     <row r="108">
       <c r="A108" t="s">
-        <v>297</v>
+        <v>267</v>
       </c>
       <c r="B108" t="n">
         <v>2013</v>
@@ -6875,7 +6356,7 @@
     </row>
     <row r="109">
       <c r="A109" t="s">
-        <v>298</v>
+        <v>268</v>
       </c>
       <c r="B109" t="n">
         <v>2013</v>
@@ -6889,7 +6370,7 @@
     </row>
     <row r="110">
       <c r="A110" t="s">
-        <v>299</v>
+        <v>269</v>
       </c>
       <c r="B110" t="n">
         <v>2013</v>
@@ -6903,7 +6384,7 @@
     </row>
     <row r="111">
       <c r="A111" t="s">
-        <v>300</v>
+        <v>270</v>
       </c>
       <c r="B111" t="n">
         <v>2013</v>
@@ -6917,7 +6398,7 @@
     </row>
     <row r="112">
       <c r="A112" t="s">
-        <v>301</v>
+        <v>271</v>
       </c>
       <c r="B112" t="n">
         <v>2013</v>
@@ -6931,7 +6412,7 @@
     </row>
     <row r="113">
       <c r="A113" t="s">
-        <v>302</v>
+        <v>272</v>
       </c>
       <c r="B113" t="n">
         <v>2013</v>
@@ -6945,7 +6426,7 @@
     </row>
     <row r="114">
       <c r="A114" t="s">
-        <v>303</v>
+        <v>273</v>
       </c>
       <c r="B114" t="n">
         <v>2013</v>
@@ -6959,7 +6440,7 @@
     </row>
     <row r="115">
       <c r="A115" t="s">
-        <v>304</v>
+        <v>274</v>
       </c>
       <c r="B115" t="n">
         <v>2013</v>
@@ -6973,7 +6454,7 @@
     </row>
     <row r="116">
       <c r="A116" t="s">
-        <v>305</v>
+        <v>275</v>
       </c>
       <c r="B116" t="n">
         <v>2013</v>
@@ -7113,7 +6594,7 @@
     </row>
     <row r="126">
       <c r="A126" t="s">
-        <v>306</v>
+        <v>276</v>
       </c>
       <c r="B126" t="n">
         <v>2014</v>
@@ -7127,7 +6608,7 @@
     </row>
     <row r="127">
       <c r="A127" t="s">
-        <v>307</v>
+        <v>277</v>
       </c>
       <c r="B127" t="n">
         <v>2014</v>
@@ -7141,7 +6622,7 @@
     </row>
     <row r="128">
       <c r="A128" t="s">
-        <v>308</v>
+        <v>278</v>
       </c>
       <c r="B128" t="n">
         <v>2014</v>
@@ -7155,7 +6636,7 @@
     </row>
     <row r="129">
       <c r="A129" t="s">
-        <v>309</v>
+        <v>279</v>
       </c>
       <c r="B129" t="n">
         <v>2014</v>
@@ -7169,7 +6650,7 @@
     </row>
     <row r="130">
       <c r="A130" t="s">
-        <v>310</v>
+        <v>280</v>
       </c>
       <c r="B130" t="n">
         <v>2014</v>
@@ -7183,7 +6664,7 @@
     </row>
     <row r="131">
       <c r="A131" t="s">
-        <v>311</v>
+        <v>281</v>
       </c>
       <c r="B131" t="n">
         <v>2014</v>
@@ -7197,7 +6678,7 @@
     </row>
     <row r="132">
       <c r="A132" t="s">
-        <v>312</v>
+        <v>282</v>
       </c>
       <c r="B132" t="n">
         <v>2014</v>
@@ -7211,7 +6692,7 @@
     </row>
     <row r="133">
       <c r="A133" t="s">
-        <v>313</v>
+        <v>283</v>
       </c>
       <c r="B133" t="n">
         <v>2014</v>
@@ -7239,7 +6720,7 @@
     </row>
     <row r="135">
       <c r="A135" t="s">
-        <v>314</v>
+        <v>284</v>
       </c>
       <c r="B135" t="n">
         <v>2015</v>
@@ -7253,7 +6734,7 @@
     </row>
     <row r="136">
       <c r="A136" t="s">
-        <v>315</v>
+        <v>285</v>
       </c>
       <c r="B136" t="n">
         <v>2015</v>
@@ -7267,7 +6748,7 @@
     </row>
     <row r="137">
       <c r="A137" t="s">
-        <v>316</v>
+        <v>286</v>
       </c>
       <c r="B137" t="n">
         <v>2015</v>
@@ -7365,7 +6846,7 @@
     </row>
     <row r="144">
       <c r="A144" t="s">
-        <v>317</v>
+        <v>287</v>
       </c>
       <c r="B144" t="n">
         <v>2016</v>
@@ -7379,7 +6860,7 @@
     </row>
     <row r="145">
       <c r="A145" t="s">
-        <v>318</v>
+        <v>288</v>
       </c>
       <c r="B145" t="n">
         <v>2016</v>
@@ -7449,7 +6930,7 @@
     </row>
     <row r="150">
       <c r="A150" t="s">
-        <v>319</v>
+        <v>289</v>
       </c>
       <c r="B150" t="n">
         <v>2017</v>
@@ -7561,7 +7042,7 @@
     </row>
     <row r="158">
       <c r="A158" t="s">
-        <v>320</v>
+        <v>290</v>
       </c>
       <c r="B158" t="n">
         <v>2018</v>
@@ -7575,7 +7056,7 @@
     </row>
     <row r="159">
       <c r="A159" t="s">
-        <v>321</v>
+        <v>291</v>
       </c>
       <c r="B159" t="n">
         <v>2018</v>
@@ -7589,7 +7070,7 @@
     </row>
     <row r="160">
       <c r="A160" t="s">
-        <v>322</v>
+        <v>292</v>
       </c>
       <c r="B160" t="n">
         <v>2018</v>
@@ -7603,7 +7084,7 @@
     </row>
     <row r="161">
       <c r="A161" t="s">
-        <v>323</v>
+        <v>293</v>
       </c>
       <c r="B161" t="n">
         <v>1997</v>
@@ -7743,7 +7224,7 @@
     </row>
     <row r="171">
       <c r="A171" t="s">
-        <v>324</v>
+        <v>294</v>
       </c>
       <c r="B171" t="n">
         <v>2019</v>
@@ -7757,7 +7238,7 @@
     </row>
     <row r="172">
       <c r="A172" t="s">
-        <v>325</v>
+        <v>295</v>
       </c>
       <c r="B172" t="n">
         <v>2019</v>
@@ -7771,7 +7252,7 @@
     </row>
     <row r="173">
       <c r="A173" t="s">
-        <v>326</v>
+        <v>296</v>
       </c>
       <c r="B173" t="n">
         <v>2019</v>
@@ -7785,7 +7266,7 @@
     </row>
     <row r="174">
       <c r="A174" t="s">
-        <v>327</v>
+        <v>297</v>
       </c>
       <c r="B174" t="n">
         <v>2019</v>
@@ -7967,7 +7448,7 @@
     </row>
     <row r="187">
       <c r="A187" t="s">
-        <v>328</v>
+        <v>298</v>
       </c>
       <c r="B187" t="n">
         <v>2020</v>
@@ -7981,7 +7462,7 @@
     </row>
     <row r="188">
       <c r="A188" t="s">
-        <v>329</v>
+        <v>299</v>
       </c>
       <c r="B188" t="n">
         <v>2020</v>
@@ -7995,7 +7476,7 @@
     </row>
     <row r="189">
       <c r="A189" t="s">
-        <v>330</v>
+        <v>300</v>
       </c>
       <c r="B189" t="n">
         <v>2020</v>
@@ -8009,7 +7490,7 @@
     </row>
     <row r="190">
       <c r="A190" t="s">
-        <v>331</v>
+        <v>301</v>
       </c>
       <c r="B190" t="n">
         <v>2020</v>
@@ -8079,729 +7560,295 @@
     </row>
     <row r="195">
       <c r="A195" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="B195" t="n">
-        <v>2022</v>
+        <v>1998</v>
       </c>
       <c r="C195" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="D195" t="n">
-        <v>100</v>
+        <v>197</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="s">
-        <v>332</v>
+        <v>217</v>
       </c>
       <c r="B196" t="n">
         <v>2022</v>
       </c>
       <c r="C196" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="D196" t="n">
-        <v>112</v>
+        <v>207</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="s">
-        <v>333</v>
+        <v>219</v>
       </c>
       <c r="B197" t="n">
         <v>2022</v>
       </c>
       <c r="C197" t="n">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D197" t="n">
-        <v>104</v>
+        <v>227</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="s">
-        <v>334</v>
+        <v>220</v>
       </c>
       <c r="B198" t="n">
         <v>2022</v>
       </c>
       <c r="C198" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D198" t="n">
-        <v>106</v>
+        <v>181</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="s">
-        <v>216</v>
+        <v>221</v>
       </c>
       <c r="B199" t="n">
-        <v>1998</v>
+        <v>2022</v>
       </c>
       <c r="C199" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D199" t="n">
-        <v>197</v>
+        <v>187</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="s">
-        <v>217</v>
+        <v>222</v>
       </c>
       <c r="B200" t="n">
         <v>2022</v>
       </c>
       <c r="C200" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D200" t="n">
-        <v>207</v>
+        <v>198</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="s">
-        <v>218</v>
+        <v>302</v>
       </c>
       <c r="B201" t="n">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="C201" t="n">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="D201" t="n">
-        <v>164</v>
+        <v>212</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="s">
-        <v>219</v>
+        <v>303</v>
       </c>
       <c r="B202" t="n">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="C202" t="n">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="D202" t="n">
-        <v>227</v>
+        <v>221</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="s">
-        <v>220</v>
+        <v>304</v>
       </c>
       <c r="B203" t="n">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="C203" t="n">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="D203" t="n">
-        <v>181</v>
+        <v>261</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="s">
-        <v>221</v>
+        <v>305</v>
       </c>
       <c r="B204" t="n">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="C204" t="n">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="D204" t="n">
-        <v>187</v>
+        <v>227</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="s">
-        <v>222</v>
+        <v>306</v>
       </c>
       <c r="B205" t="n">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="C205" t="n">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="D205" t="n">
-        <v>198</v>
+        <v>264</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="s">
-        <v>223</v>
+        <v>307</v>
       </c>
       <c r="B206" t="n">
         <v>2023</v>
       </c>
       <c r="C206" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D206" t="n">
-        <v>212</v>
+        <v>244</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B207" t="n">
-        <v>2023</v>
+        <v>1999</v>
       </c>
       <c r="C207" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D207" t="n">
-        <v>221</v>
+        <v>443</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B208" t="n">
-        <v>2023</v>
+        <v>1999</v>
       </c>
       <c r="C208" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D208" t="n">
-        <v>261</v>
+        <v>432</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="B209" t="n">
-        <v>2023</v>
+        <v>1999</v>
       </c>
       <c r="C209" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D209" t="n">
-        <v>227</v>
+        <v>467</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="B210" t="n">
-        <v>2023</v>
+        <v>1999</v>
       </c>
       <c r="C210" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D210" t="n">
-        <v>264</v>
+        <v>499</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="s">
-        <v>228</v>
+        <v>308</v>
       </c>
       <c r="B211" t="n">
-        <v>2023</v>
+        <v>1999</v>
       </c>
       <c r="C211" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D211" t="n">
-        <v>244</v>
+        <v>478</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="s">
-        <v>335</v>
+        <v>309</v>
       </c>
       <c r="B212" t="n">
-        <v>2023</v>
+        <v>1999</v>
       </c>
       <c r="C212" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D212" t="n">
-        <v>112</v>
+        <v>398</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="s">
-        <v>336</v>
+        <v>310</v>
       </c>
       <c r="B213" t="n">
-        <v>2023</v>
+        <v>1999</v>
       </c>
       <c r="C213" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D213" t="n">
-        <v>96</v>
+        <v>149</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="s">
-        <v>337</v>
+        <v>311</v>
       </c>
       <c r="B214" t="n">
-        <v>2023</v>
+        <v>1999</v>
       </c>
       <c r="C214" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D214" t="n">
-        <v>106</v>
+        <v>173</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="s">
-        <v>338</v>
+        <v>312</v>
       </c>
       <c r="B215" t="n">
-        <v>2023</v>
+        <v>1999</v>
       </c>
       <c r="C215" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D215" t="n">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="216">
-      <c r="A216" t="s">
-        <v>339</v>
-      </c>
-      <c r="B216" t="n">
-        <v>2023</v>
-      </c>
-      <c r="C216" t="n">
-        <v>9</v>
-      </c>
-      <c r="D216" t="n">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="217">
-      <c r="A217" t="s">
-        <v>340</v>
-      </c>
-      <c r="B217" t="n">
-        <v>2023</v>
-      </c>
-      <c r="C217" t="n">
-        <v>9</v>
-      </c>
-      <c r="D217" t="n">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="218">
-      <c r="A218" t="s">
-        <v>341</v>
-      </c>
-      <c r="B218" t="n">
-        <v>2023</v>
-      </c>
-      <c r="C218" t="n">
-        <v>9</v>
-      </c>
-      <c r="D218" t="n">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="219">
-      <c r="A219" t="s">
-        <v>229</v>
-      </c>
-      <c r="B219" t="n">
-        <v>2023</v>
-      </c>
-      <c r="C219" t="n">
-        <v>10</v>
-      </c>
-      <c r="D219" t="n">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="220">
-      <c r="A220" t="s">
-        <v>230</v>
-      </c>
-      <c r="B220" t="n">
-        <v>2023</v>
-      </c>
-      <c r="C220" t="n">
-        <v>10</v>
-      </c>
-      <c r="D220" t="n">
-        <v>527</v>
-      </c>
-    </row>
-    <row r="221">
-      <c r="A221" t="s">
-        <v>231</v>
-      </c>
-      <c r="B221" t="n">
-        <v>2023</v>
-      </c>
-      <c r="C221" t="n">
-        <v>10</v>
-      </c>
-      <c r="D221" t="n">
-        <v>501</v>
-      </c>
-    </row>
-    <row r="222">
-      <c r="A222" t="s">
-        <v>233</v>
-      </c>
-      <c r="B222" t="n">
-        <v>2023</v>
-      </c>
-      <c r="C222" t="n">
-        <v>11</v>
-      </c>
-      <c r="D222" t="n">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="223">
-      <c r="A223" t="s">
-        <v>237</v>
-      </c>
-      <c r="B223" t="n">
-        <v>2023</v>
-      </c>
-      <c r="C223" t="n">
-        <v>12</v>
-      </c>
-      <c r="D223" t="n">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="224">
-      <c r="A224" t="s">
-        <v>238</v>
-      </c>
-      <c r="B224" t="n">
-        <v>2023</v>
-      </c>
-      <c r="C224" t="n">
-        <v>12</v>
-      </c>
-      <c r="D224" t="n">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="225">
-      <c r="A225" t="s">
-        <v>239</v>
-      </c>
-      <c r="B225" t="n">
-        <v>2023</v>
-      </c>
-      <c r="C225" t="n">
-        <v>12</v>
-      </c>
-      <c r="D225" t="n">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="226">
-      <c r="A226" t="s">
-        <v>241</v>
-      </c>
-      <c r="B226" t="n">
-        <v>2024</v>
-      </c>
-      <c r="C226" t="n">
-        <v>1</v>
-      </c>
-      <c r="D226" t="n">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="227">
-      <c r="A227" t="s">
-        <v>242</v>
-      </c>
-      <c r="B227" t="n">
-        <v>2024</v>
-      </c>
-      <c r="C227" t="n">
-        <v>1</v>
-      </c>
-      <c r="D227" t="n">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="228">
-      <c r="A228" t="s">
-        <v>243</v>
-      </c>
-      <c r="B228" t="n">
-        <v>2024</v>
-      </c>
-      <c r="C228" t="n">
-        <v>1</v>
-      </c>
-      <c r="D228" t="n">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="229">
-      <c r="A229" t="s">
-        <v>244</v>
-      </c>
-      <c r="B229" t="n">
-        <v>2024</v>
-      </c>
-      <c r="C229" t="n">
-        <v>2</v>
-      </c>
-      <c r="D229" t="n">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="230">
-      <c r="A230" t="s">
-        <v>245</v>
-      </c>
-      <c r="B230" t="n">
-        <v>2024</v>
-      </c>
-      <c r="C230" t="n">
-        <v>2</v>
-      </c>
-      <c r="D230" t="n">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="231">
-      <c r="A231" t="s">
-        <v>246</v>
-      </c>
-      <c r="B231" t="n">
-        <v>1999</v>
-      </c>
-      <c r="C231" t="n">
-        <v>2</v>
-      </c>
-      <c r="D231" t="n">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="232">
-      <c r="A232" t="s">
-        <v>247</v>
-      </c>
-      <c r="B232" t="n">
-        <v>2024</v>
-      </c>
-      <c r="C232" t="n">
-        <v>2</v>
-      </c>
-      <c r="D232" t="n">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="233">
-      <c r="A233" t="s">
-        <v>248</v>
-      </c>
-      <c r="B233" t="n">
-        <v>2024</v>
-      </c>
-      <c r="C233" t="n">
-        <v>2</v>
-      </c>
-      <c r="D233" t="n">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="234">
-      <c r="A234" t="s">
-        <v>249</v>
-      </c>
-      <c r="B234" t="n">
-        <v>1999</v>
-      </c>
-      <c r="C234" t="n">
-        <v>2</v>
-      </c>
-      <c r="D234" t="n">
-        <v>432</v>
-      </c>
-    </row>
-    <row r="235">
-      <c r="A235" t="s">
-        <v>250</v>
-      </c>
-      <c r="B235" t="n">
-        <v>2024</v>
-      </c>
-      <c r="C235" t="n">
-        <v>2</v>
-      </c>
-      <c r="D235" t="n">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="236">
-      <c r="A236" t="s">
-        <v>251</v>
-      </c>
-      <c r="B236" t="n">
-        <v>2024</v>
-      </c>
-      <c r="C236" t="n">
-        <v>2</v>
-      </c>
-      <c r="D236" t="n">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="237">
-      <c r="A237" t="s">
-        <v>252</v>
-      </c>
-      <c r="B237" t="n">
-        <v>2024</v>
-      </c>
-      <c r="C237" t="n">
-        <v>2</v>
-      </c>
-      <c r="D237" t="n">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="238">
-      <c r="A238" t="s">
-        <v>253</v>
-      </c>
-      <c r="B238" t="n">
-        <v>2024</v>
-      </c>
-      <c r="C238" t="n">
-        <v>2</v>
-      </c>
-      <c r="D238" t="n">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="239">
-      <c r="A239" t="s">
-        <v>254</v>
-      </c>
-      <c r="B239" t="n">
-        <v>2024</v>
-      </c>
-      <c r="C239" t="n">
-        <v>3</v>
-      </c>
-      <c r="D239" t="n">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="240">
-      <c r="A240" t="s">
-        <v>257</v>
-      </c>
-      <c r="B240" t="n">
-        <v>1999</v>
-      </c>
-      <c r="C240" t="n">
-        <v>3</v>
-      </c>
-      <c r="D240" t="n">
-        <v>467</v>
-      </c>
-    </row>
-    <row r="241">
-      <c r="A241" t="s">
-        <v>258</v>
-      </c>
-      <c r="B241" t="n">
-        <v>1999</v>
-      </c>
-      <c r="C241" t="n">
-        <v>3</v>
-      </c>
-      <c r="D241" t="n">
-        <v>499</v>
-      </c>
-    </row>
-    <row r="242">
-      <c r="A242" t="s">
-        <v>342</v>
-      </c>
-      <c r="B242" t="n">
-        <v>1999</v>
-      </c>
-      <c r="C242" t="n">
-        <v>5</v>
-      </c>
-      <c r="D242" t="n">
-        <v>478</v>
-      </c>
-    </row>
-    <row r="243">
-      <c r="A243" t="s">
-        <v>343</v>
-      </c>
-      <c r="B243" t="n">
-        <v>1999</v>
-      </c>
-      <c r="C243" t="n">
-        <v>7</v>
-      </c>
-      <c r="D243" t="n">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="244">
-      <c r="A244" t="s">
-        <v>344</v>
-      </c>
-      <c r="B244" t="n">
-        <v>1999</v>
-      </c>
-      <c r="C244" t="n">
-        <v>7</v>
-      </c>
-      <c r="D244" t="n">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="245">
-      <c r="A245" t="s">
-        <v>345</v>
-      </c>
-      <c r="B245" t="n">
-        <v>1999</v>
-      </c>
-      <c r="C245" t="n">
-        <v>9</v>
-      </c>
-      <c r="D245" t="n">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="246">
-      <c r="A246" t="s">
-        <v>346</v>
-      </c>
-      <c r="B246" t="n">
-        <v>1999</v>
-      </c>
-      <c r="C246" t="n">
-        <v>9</v>
-      </c>
-      <c r="D246" t="n">
         <v>160</v>
       </c>
     </row>
@@ -8835,7 +7882,7 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>347</v>
+        <v>313</v>
       </c>
       <c r="B2" t="n">
         <v>2000</v>
@@ -8849,7 +7896,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>261</v>
+        <v>231</v>
       </c>
       <c r="B3" t="n">
         <v>2000</v>
@@ -8863,7 +7910,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>348</v>
+        <v>314</v>
       </c>
       <c r="B4" t="n">
         <v>2000</v>
@@ -8877,7 +7924,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>262</v>
+        <v>232</v>
       </c>
       <c r="B5" t="n">
         <v>2000</v>
@@ -8891,7 +7938,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>349</v>
+        <v>315</v>
       </c>
       <c r="B6" t="n">
         <v>2000</v>
@@ -8905,7 +7952,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>263</v>
+        <v>233</v>
       </c>
       <c r="B7" t="n">
         <v>2000</v>
@@ -8919,7 +7966,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>350</v>
+        <v>316</v>
       </c>
       <c r="B8" t="n">
         <v>2000</v>
@@ -8933,7 +7980,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>351</v>
+        <v>317</v>
       </c>
       <c r="B9" t="n">
         <v>2001</v>
@@ -8947,7 +7994,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>264</v>
+        <v>234</v>
       </c>
       <c r="B10" t="n">
         <v>2001</v>
@@ -8961,7 +8008,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>352</v>
+        <v>318</v>
       </c>
       <c r="B11" t="n">
         <v>2001</v>
@@ -8975,7 +8022,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>353</v>
+        <v>319</v>
       </c>
       <c r="B12" t="n">
         <v>2002</v>
@@ -8989,7 +8036,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>354</v>
+        <v>320</v>
       </c>
       <c r="B13" t="n">
         <v>2002</v>
@@ -9003,7 +8050,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>265</v>
+        <v>235</v>
       </c>
       <c r="B14" t="n">
         <v>2002</v>
@@ -9017,7 +8064,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>355</v>
+        <v>321</v>
       </c>
       <c r="B15" t="n">
         <v>2002</v>
@@ -9031,7 +8078,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>266</v>
+        <v>236</v>
       </c>
       <c r="B16" t="n">
         <v>2002</v>
@@ -9045,7 +8092,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>356</v>
+        <v>322</v>
       </c>
       <c r="B17" t="n">
         <v>1992</v>
@@ -9059,7 +8106,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>357</v>
+        <v>323</v>
       </c>
       <c r="B18" t="n">
         <v>2002</v>
@@ -9073,7 +8120,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>358</v>
+        <v>324</v>
       </c>
       <c r="B19" t="n">
         <v>1992</v>
@@ -9087,7 +8134,7 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>359</v>
+        <v>325</v>
       </c>
       <c r="B20" t="n">
         <v>2002</v>
@@ -9101,7 +8148,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>360</v>
+        <v>326</v>
       </c>
       <c r="B21" t="n">
         <v>2002</v>
@@ -9115,7 +8162,7 @@
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>361</v>
+        <v>327</v>
       </c>
       <c r="B22" t="n">
         <v>2003</v>
@@ -9129,7 +8176,7 @@
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>362</v>
+        <v>328</v>
       </c>
       <c r="B23" t="n">
         <v>2003</v>
@@ -9143,7 +8190,7 @@
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>363</v>
+        <v>329</v>
       </c>
       <c r="B24" t="n">
         <v>2003</v>
@@ -9157,7 +8204,7 @@
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>364</v>
+        <v>330</v>
       </c>
       <c r="B25" t="n">
         <v>2003</v>
@@ -9171,7 +8218,7 @@
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>267</v>
+        <v>237</v>
       </c>
       <c r="B26" t="n">
         <v>1992</v>
@@ -9185,7 +8232,7 @@
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>268</v>
+        <v>238</v>
       </c>
       <c r="B27" t="n">
         <v>1992</v>
@@ -9199,7 +8246,7 @@
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>365</v>
+        <v>331</v>
       </c>
       <c r="B28" t="n">
         <v>2006</v>
@@ -9213,7 +8260,7 @@
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>366</v>
+        <v>332</v>
       </c>
       <c r="B29" t="n">
         <v>2006</v>
@@ -9227,7 +8274,7 @@
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>367</v>
+        <v>333</v>
       </c>
       <c r="B30" t="n">
         <v>2006</v>
@@ -9241,7 +8288,7 @@
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>269</v>
+        <v>239</v>
       </c>
       <c r="B31" t="n">
         <v>2006</v>
@@ -9255,7 +8302,7 @@
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>368</v>
+        <v>334</v>
       </c>
       <c r="B32" t="n">
         <v>2006</v>
@@ -9269,7 +8316,7 @@
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>369</v>
+        <v>335</v>
       </c>
       <c r="B33" t="n">
         <v>2006</v>
@@ -9283,7 +8330,7 @@
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>370</v>
+        <v>336</v>
       </c>
       <c r="B34" t="n">
         <v>2006</v>
@@ -9297,7 +8344,7 @@
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>371</v>
+        <v>337</v>
       </c>
       <c r="B35" t="n">
         <v>2006</v>
@@ -9311,7 +8358,7 @@
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>372</v>
+        <v>338</v>
       </c>
       <c r="B36" t="n">
         <v>2006</v>
@@ -9325,7 +8372,7 @@
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>373</v>
+        <v>339</v>
       </c>
       <c r="B37" t="n">
         <v>2006</v>
@@ -9339,7 +8386,7 @@
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>270</v>
+        <v>240</v>
       </c>
       <c r="B38" t="n">
         <v>2006</v>
@@ -9353,7 +8400,7 @@
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>374</v>
+        <v>340</v>
       </c>
       <c r="B39" t="n">
         <v>2006</v>
@@ -9367,7 +8414,7 @@
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>375</v>
+        <v>341</v>
       </c>
       <c r="B40" t="n">
         <v>2006</v>
@@ -9381,7 +8428,7 @@
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>271</v>
+        <v>241</v>
       </c>
       <c r="B41" t="n">
         <v>2006</v>
@@ -9395,7 +8442,7 @@
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>376</v>
+        <v>342</v>
       </c>
       <c r="B42" t="n">
         <v>2006</v>
@@ -9409,7 +8456,7 @@
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>377</v>
+        <v>343</v>
       </c>
       <c r="B43" t="n">
         <v>2006</v>
@@ -9423,7 +8470,7 @@
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>378</v>
+        <v>344</v>
       </c>
       <c r="B44" t="n">
         <v>2006</v>
@@ -9437,7 +8484,7 @@
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>379</v>
+        <v>345</v>
       </c>
       <c r="B45" t="n">
         <v>2006</v>
@@ -9451,7 +8498,7 @@
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>380</v>
+        <v>346</v>
       </c>
       <c r="B46" t="n">
         <v>2006</v>
@@ -9465,7 +8512,7 @@
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>381</v>
+        <v>347</v>
       </c>
       <c r="B47" t="n">
         <v>2006</v>
@@ -9479,7 +8526,7 @@
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>382</v>
+        <v>348</v>
       </c>
       <c r="B48" t="n">
         <v>2007</v>
@@ -9493,7 +8540,7 @@
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>383</v>
+        <v>349</v>
       </c>
       <c r="B49" t="n">
         <v>2007</v>
@@ -9507,7 +8554,7 @@
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>272</v>
+        <v>242</v>
       </c>
       <c r="B50" t="n">
         <v>2007</v>
@@ -9521,7 +8568,7 @@
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>384</v>
+        <v>350</v>
       </c>
       <c r="B51" t="n">
         <v>2007</v>
@@ -9535,7 +8582,7 @@
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>273</v>
+        <v>243</v>
       </c>
       <c r="B52" t="n">
         <v>2007</v>
@@ -9549,7 +8596,7 @@
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>385</v>
+        <v>351</v>
       </c>
       <c r="B53" t="n">
         <v>2007</v>
@@ -9563,7 +8610,7 @@
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>274</v>
+        <v>244</v>
       </c>
       <c r="B54" t="n">
         <v>2007</v>
@@ -9577,7 +8624,7 @@
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>386</v>
+        <v>352</v>
       </c>
       <c r="B55" t="n">
         <v>2007</v>
@@ -9591,7 +8638,7 @@
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>275</v>
+        <v>245</v>
       </c>
       <c r="B56" t="n">
         <v>2007</v>
@@ -9605,7 +8652,7 @@
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>387</v>
+        <v>353</v>
       </c>
       <c r="B57" t="n">
         <v>2007</v>
@@ -9619,7 +8666,7 @@
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>276</v>
+        <v>246</v>
       </c>
       <c r="B58" t="n">
         <v>2007</v>
@@ -9633,7 +8680,7 @@
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>388</v>
+        <v>354</v>
       </c>
       <c r="B59" t="n">
         <v>2007</v>
@@ -9647,7 +8694,7 @@
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>389</v>
+        <v>355</v>
       </c>
       <c r="B60" t="n">
         <v>2007</v>
@@ -9661,7 +8708,7 @@
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>390</v>
+        <v>356</v>
       </c>
       <c r="B61" t="n">
         <v>2007</v>
@@ -9675,7 +8722,7 @@
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>391</v>
+        <v>357</v>
       </c>
       <c r="B62" t="n">
         <v>2007</v>
@@ -9689,7 +8736,7 @@
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>392</v>
+        <v>358</v>
       </c>
       <c r="B63" t="n">
         <v>2007</v>
@@ -9703,7 +8750,7 @@
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>277</v>
+        <v>247</v>
       </c>
       <c r="B64" t="n">
         <v>2007</v>
@@ -9717,7 +8764,7 @@
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>278</v>
+        <v>248</v>
       </c>
       <c r="B65" t="n">
         <v>2008</v>
@@ -9731,7 +8778,7 @@
     </row>
     <row r="66">
       <c r="A66" t="s">
-        <v>393</v>
+        <v>359</v>
       </c>
       <c r="B66" t="n">
         <v>2008</v>
@@ -9745,7 +8792,7 @@
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>279</v>
+        <v>249</v>
       </c>
       <c r="B67" t="n">
         <v>2008</v>
@@ -9759,7 +8806,7 @@
     </row>
     <row r="68">
       <c r="A68" t="s">
-        <v>394</v>
+        <v>360</v>
       </c>
       <c r="B68" t="n">
         <v>2008</v>
@@ -9773,7 +8820,7 @@
     </row>
     <row r="69">
       <c r="A69" t="s">
-        <v>395</v>
+        <v>361</v>
       </c>
       <c r="B69" t="n">
         <v>2008</v>
@@ -9787,7 +8834,7 @@
     </row>
     <row r="70">
       <c r="A70" t="s">
-        <v>396</v>
+        <v>362</v>
       </c>
       <c r="B70" t="n">
         <v>2008</v>
@@ -9801,7 +8848,7 @@
     </row>
     <row r="71">
       <c r="A71" t="s">
-        <v>397</v>
+        <v>363</v>
       </c>
       <c r="B71" t="n">
         <v>2008</v>
@@ -9815,7 +8862,7 @@
     </row>
     <row r="72">
       <c r="A72" t="s">
-        <v>398</v>
+        <v>364</v>
       </c>
       <c r="B72" t="n">
         <v>2008</v>
@@ -9829,7 +8876,7 @@
     </row>
     <row r="73">
       <c r="A73" t="s">
-        <v>280</v>
+        <v>250</v>
       </c>
       <c r="B73" t="n">
         <v>2009</v>
@@ -9843,7 +8890,7 @@
     </row>
     <row r="74">
       <c r="A74" t="s">
-        <v>281</v>
+        <v>251</v>
       </c>
       <c r="B74" t="n">
         <v>2009</v>
@@ -9857,7 +8904,7 @@
     </row>
     <row r="75">
       <c r="A75" t="s">
-        <v>282</v>
+        <v>252</v>
       </c>
       <c r="B75" t="n">
         <v>2009</v>
@@ -9871,7 +8918,7 @@
     </row>
     <row r="76">
       <c r="A76" t="s">
-        <v>283</v>
+        <v>253</v>
       </c>
       <c r="B76" t="n">
         <v>2009</v>
@@ -9885,7 +8932,7 @@
     </row>
     <row r="77">
       <c r="A77" t="s">
-        <v>284</v>
+        <v>254</v>
       </c>
       <c r="B77" t="n">
         <v>2010</v>
@@ -9899,7 +8946,7 @@
     </row>
     <row r="78">
       <c r="A78" t="s">
-        <v>285</v>
+        <v>255</v>
       </c>
       <c r="B78" t="n">
         <v>2010</v>
@@ -9913,7 +8960,7 @@
     </row>
     <row r="79">
       <c r="A79" t="s">
-        <v>399</v>
+        <v>365</v>
       </c>
       <c r="B79" t="n">
         <v>2010</v>
@@ -9927,7 +8974,7 @@
     </row>
     <row r="80">
       <c r="A80" t="s">
-        <v>400</v>
+        <v>366</v>
       </c>
       <c r="B80" t="n">
         <v>2010</v>
@@ -9941,7 +8988,7 @@
     </row>
     <row r="81">
       <c r="A81" t="s">
-        <v>401</v>
+        <v>367</v>
       </c>
       <c r="B81" t="n">
         <v>2010</v>
@@ -9955,7 +9002,7 @@
     </row>
     <row r="82">
       <c r="A82" t="s">
-        <v>402</v>
+        <v>368</v>
       </c>
       <c r="B82" t="n">
         <v>2010</v>
@@ -9969,7 +9016,7 @@
     </row>
     <row r="83">
       <c r="A83" t="s">
-        <v>403</v>
+        <v>369</v>
       </c>
       <c r="B83" t="n">
         <v>2010</v>
@@ -9983,7 +9030,7 @@
     </row>
     <row r="84">
       <c r="A84" t="s">
-        <v>404</v>
+        <v>370</v>
       </c>
       <c r="B84" t="n">
         <v>2010</v>
@@ -9997,7 +9044,7 @@
     </row>
     <row r="85">
       <c r="A85" t="s">
-        <v>405</v>
+        <v>371</v>
       </c>
       <c r="B85" t="n">
         <v>2010</v>
@@ -10011,7 +9058,7 @@
     </row>
     <row r="86">
       <c r="A86" t="s">
-        <v>286</v>
+        <v>256</v>
       </c>
       <c r="B86" t="n">
         <v>2010</v>
@@ -10025,7 +9072,7 @@
     </row>
     <row r="87">
       <c r="A87" t="s">
-        <v>406</v>
+        <v>372</v>
       </c>
       <c r="B87" t="n">
         <v>2010</v>
@@ -10039,7 +9086,7 @@
     </row>
     <row r="88">
       <c r="A88" t="s">
-        <v>407</v>
+        <v>373</v>
       </c>
       <c r="B88" t="n">
         <v>1994</v>
@@ -10053,7 +9100,7 @@
     </row>
     <row r="89">
       <c r="A89" t="s">
-        <v>408</v>
+        <v>374</v>
       </c>
       <c r="B89" t="n">
         <v>2010</v>
@@ -10067,7 +9114,7 @@
     </row>
     <row r="90">
       <c r="A90" t="s">
-        <v>409</v>
+        <v>375</v>
       </c>
       <c r="B90" t="n">
         <v>2010</v>
@@ -10081,7 +9128,7 @@
     </row>
     <row r="91">
       <c r="A91" t="s">
-        <v>410</v>
+        <v>376</v>
       </c>
       <c r="B91" t="n">
         <v>2010</v>
@@ -10095,7 +9142,7 @@
     </row>
     <row r="92">
       <c r="A92" t="s">
-        <v>411</v>
+        <v>377</v>
       </c>
       <c r="B92" t="n">
         <v>2010</v>
@@ -10109,7 +9156,7 @@
     </row>
     <row r="93">
       <c r="A93" t="s">
-        <v>412</v>
+        <v>378</v>
       </c>
       <c r="B93" t="n">
         <v>2010</v>
@@ -10123,7 +9170,7 @@
     </row>
     <row r="94">
       <c r="A94" t="s">
-        <v>413</v>
+        <v>379</v>
       </c>
       <c r="B94" t="n">
         <v>2010</v>
@@ -10137,7 +9184,7 @@
     </row>
     <row r="95">
       <c r="A95" t="s">
-        <v>414</v>
+        <v>380</v>
       </c>
       <c r="B95" t="n">
         <v>2010</v>
@@ -10151,7 +9198,7 @@
     </row>
     <row r="96">
       <c r="A96" t="s">
-        <v>415</v>
+        <v>381</v>
       </c>
       <c r="B96" t="n">
         <v>2010</v>
@@ -10165,7 +9212,7 @@
     </row>
     <row r="97">
       <c r="A97" t="s">
-        <v>416</v>
+        <v>382</v>
       </c>
       <c r="B97" t="n">
         <v>2010</v>
@@ -10179,7 +9226,7 @@
     </row>
     <row r="98">
       <c r="A98" t="s">
-        <v>417</v>
+        <v>383</v>
       </c>
       <c r="B98" t="n">
         <v>2010</v>
@@ -10193,7 +9240,7 @@
     </row>
     <row r="99">
       <c r="A99" t="s">
-        <v>418</v>
+        <v>384</v>
       </c>
       <c r="B99" t="n">
         <v>2010</v>
@@ -10207,7 +9254,7 @@
     </row>
     <row r="100">
       <c r="A100" t="s">
-        <v>419</v>
+        <v>385</v>
       </c>
       <c r="B100" t="n">
         <v>1994</v>
@@ -10221,7 +9268,7 @@
     </row>
     <row r="101">
       <c r="A101" t="s">
-        <v>420</v>
+        <v>386</v>
       </c>
       <c r="B101" t="n">
         <v>2011</v>
@@ -10235,7 +9282,7 @@
     </row>
     <row r="102">
       <c r="A102" t="s">
-        <v>421</v>
+        <v>387</v>
       </c>
       <c r="B102" t="n">
         <v>2011</v>
@@ -10249,7 +9296,7 @@
     </row>
     <row r="103">
       <c r="A103" t="s">
-        <v>422</v>
+        <v>388</v>
       </c>
       <c r="B103" t="n">
         <v>2011</v>
@@ -10263,7 +9310,7 @@
     </row>
     <row r="104">
       <c r="A104" t="s">
-        <v>423</v>
+        <v>389</v>
       </c>
       <c r="B104" t="n">
         <v>1995</v>
@@ -10277,7 +9324,7 @@
     </row>
     <row r="105">
       <c r="A105" t="s">
-        <v>287</v>
+        <v>257</v>
       </c>
       <c r="B105" t="n">
         <v>1995</v>
@@ -10291,7 +9338,7 @@
     </row>
     <row r="106">
       <c r="A106" t="s">
-        <v>424</v>
+        <v>390</v>
       </c>
       <c r="B106" t="n">
         <v>2012</v>
@@ -10305,7 +9352,7 @@
     </row>
     <row r="107">
       <c r="A107" t="s">
-        <v>425</v>
+        <v>391</v>
       </c>
       <c r="B107" t="n">
         <v>2012</v>
@@ -10319,7 +9366,7 @@
     </row>
     <row r="108">
       <c r="A108" t="s">
-        <v>426</v>
+        <v>392</v>
       </c>
       <c r="B108" t="n">
         <v>2012</v>
@@ -10333,7 +9380,7 @@
     </row>
     <row r="109">
       <c r="A109" t="s">
-        <v>427</v>
+        <v>393</v>
       </c>
       <c r="B109" t="n">
         <v>2012</v>
@@ -10347,7 +9394,7 @@
     </row>
     <row r="110">
       <c r="A110" t="s">
-        <v>288</v>
+        <v>258</v>
       </c>
       <c r="B110" t="n">
         <v>2012</v>
@@ -10361,7 +9408,7 @@
     </row>
     <row r="111">
       <c r="A111" t="s">
-        <v>289</v>
+        <v>259</v>
       </c>
       <c r="B111" t="n">
         <v>2012</v>
@@ -10375,7 +9422,7 @@
     </row>
     <row r="112">
       <c r="A112" t="s">
-        <v>428</v>
+        <v>394</v>
       </c>
       <c r="B112" t="n">
         <v>2012</v>
@@ -10389,7 +9436,7 @@
     </row>
     <row r="113">
       <c r="A113" t="s">
-        <v>429</v>
+        <v>395</v>
       </c>
       <c r="B113" t="n">
         <v>2012</v>
@@ -10403,7 +9450,7 @@
     </row>
     <row r="114">
       <c r="A114" t="s">
-        <v>430</v>
+        <v>396</v>
       </c>
       <c r="B114" t="n">
         <v>2012</v>
@@ -10417,7 +9464,7 @@
     </row>
     <row r="115">
       <c r="A115" t="s">
-        <v>290</v>
+        <v>260</v>
       </c>
       <c r="B115" t="n">
         <v>2013</v>
@@ -10431,7 +9478,7 @@
     </row>
     <row r="116">
       <c r="A116" t="s">
-        <v>291</v>
+        <v>261</v>
       </c>
       <c r="B116" t="n">
         <v>2013</v>
@@ -10445,7 +9492,7 @@
     </row>
     <row r="117">
       <c r="A117" t="s">
-        <v>292</v>
+        <v>262</v>
       </c>
       <c r="B117" t="n">
         <v>2013</v>
@@ -10459,7 +9506,7 @@
     </row>
     <row r="118">
       <c r="A118" t="s">
-        <v>293</v>
+        <v>263</v>
       </c>
       <c r="B118" t="n">
         <v>2013</v>
@@ -10473,7 +9520,7 @@
     </row>
     <row r="119">
       <c r="A119" t="s">
-        <v>294</v>
+        <v>264</v>
       </c>
       <c r="B119" t="n">
         <v>2013</v>
@@ -10487,7 +9534,7 @@
     </row>
     <row r="120">
       <c r="A120" t="s">
-        <v>295</v>
+        <v>265</v>
       </c>
       <c r="B120" t="n">
         <v>2013</v>
@@ -10501,7 +9548,7 @@
     </row>
     <row r="121">
       <c r="A121" t="s">
-        <v>296</v>
+        <v>266</v>
       </c>
       <c r="B121" t="n">
         <v>2013</v>
@@ -10515,7 +9562,7 @@
     </row>
     <row r="122">
       <c r="A122" t="s">
-        <v>297</v>
+        <v>267</v>
       </c>
       <c r="B122" t="n">
         <v>2013</v>
@@ -10529,7 +9576,7 @@
     </row>
     <row r="123">
       <c r="A123" t="s">
-        <v>431</v>
+        <v>397</v>
       </c>
       <c r="B123" t="n">
         <v>2013</v>
@@ -10543,7 +9590,7 @@
     </row>
     <row r="124">
       <c r="A124" t="s">
-        <v>432</v>
+        <v>398</v>
       </c>
       <c r="B124" t="n">
         <v>2013</v>
@@ -10557,7 +9604,7 @@
     </row>
     <row r="125">
       <c r="A125" t="s">
-        <v>298</v>
+        <v>268</v>
       </c>
       <c r="B125" t="n">
         <v>2013</v>
@@ -10571,7 +9618,7 @@
     </row>
     <row r="126">
       <c r="A126" t="s">
-        <v>299</v>
+        <v>269</v>
       </c>
       <c r="B126" t="n">
         <v>2013</v>
@@ -10585,7 +9632,7 @@
     </row>
     <row r="127">
       <c r="A127" t="s">
-        <v>300</v>
+        <v>270</v>
       </c>
       <c r="B127" t="n">
         <v>2013</v>
@@ -10599,7 +9646,7 @@
     </row>
     <row r="128">
       <c r="A128" t="s">
-        <v>301</v>
+        <v>271</v>
       </c>
       <c r="B128" t="n">
         <v>2013</v>
@@ -10613,7 +9660,7 @@
     </row>
     <row r="129">
       <c r="A129" t="s">
-        <v>302</v>
+        <v>272</v>
       </c>
       <c r="B129" t="n">
         <v>2013</v>
@@ -10627,7 +9674,7 @@
     </row>
     <row r="130">
       <c r="A130" t="s">
-        <v>303</v>
+        <v>273</v>
       </c>
       <c r="B130" t="n">
         <v>2013</v>
@@ -10641,7 +9688,7 @@
     </row>
     <row r="131">
       <c r="A131" t="s">
-        <v>304</v>
+        <v>274</v>
       </c>
       <c r="B131" t="n">
         <v>2013</v>
@@ -10655,7 +9702,7 @@
     </row>
     <row r="132">
       <c r="A132" t="s">
-        <v>305</v>
+        <v>275</v>
       </c>
       <c r="B132" t="n">
         <v>2013</v>
@@ -10669,7 +9716,7 @@
     </row>
     <row r="133">
       <c r="A133" t="s">
-        <v>306</v>
+        <v>276</v>
       </c>
       <c r="B133" t="n">
         <v>2014</v>
@@ -10683,7 +9730,7 @@
     </row>
     <row r="134">
       <c r="A134" t="s">
-        <v>433</v>
+        <v>399</v>
       </c>
       <c r="B134" t="n">
         <v>2014</v>
@@ -10697,7 +9744,7 @@
     </row>
     <row r="135">
       <c r="A135" t="s">
-        <v>434</v>
+        <v>400</v>
       </c>
       <c r="B135" t="n">
         <v>2014</v>
@@ -10711,7 +9758,7 @@
     </row>
     <row r="136">
       <c r="A136" t="s">
-        <v>307</v>
+        <v>277</v>
       </c>
       <c r="B136" t="n">
         <v>2014</v>
@@ -10725,7 +9772,7 @@
     </row>
     <row r="137">
       <c r="A137" t="s">
-        <v>308</v>
+        <v>278</v>
       </c>
       <c r="B137" t="n">
         <v>2014</v>
@@ -10739,7 +9786,7 @@
     </row>
     <row r="138">
       <c r="A138" t="s">
-        <v>309</v>
+        <v>279</v>
       </c>
       <c r="B138" t="n">
         <v>2014</v>
@@ -10753,7 +9800,7 @@
     </row>
     <row r="139">
       <c r="A139" t="s">
-        <v>310</v>
+        <v>280</v>
       </c>
       <c r="B139" t="n">
         <v>2014</v>
@@ -10767,7 +9814,7 @@
     </row>
     <row r="140">
       <c r="A140" t="s">
-        <v>435</v>
+        <v>401</v>
       </c>
       <c r="B140" t="n">
         <v>2014</v>
@@ -10781,7 +9828,7 @@
     </row>
     <row r="141">
       <c r="A141" t="s">
-        <v>311</v>
+        <v>281</v>
       </c>
       <c r="B141" t="n">
         <v>2014</v>
@@ -10795,7 +9842,7 @@
     </row>
     <row r="142">
       <c r="A142" t="s">
-        <v>312</v>
+        <v>282</v>
       </c>
       <c r="B142" t="n">
         <v>2014</v>
@@ -10809,7 +9856,7 @@
     </row>
     <row r="143">
       <c r="A143" t="s">
-        <v>436</v>
+        <v>402</v>
       </c>
       <c r="B143" t="n">
         <v>2014</v>
@@ -10823,7 +9870,7 @@
     </row>
     <row r="144">
       <c r="A144" t="s">
-        <v>313</v>
+        <v>283</v>
       </c>
       <c r="B144" t="n">
         <v>2014</v>
@@ -10837,7 +9884,7 @@
     </row>
     <row r="145">
       <c r="A145" t="s">
-        <v>437</v>
+        <v>403</v>
       </c>
       <c r="B145" t="n">
         <v>2014</v>
@@ -10851,7 +9898,7 @@
     </row>
     <row r="146">
       <c r="A146" t="s">
-        <v>438</v>
+        <v>404</v>
       </c>
       <c r="B146" t="n">
         <v>2014</v>
@@ -10865,7 +9912,7 @@
     </row>
     <row r="147">
       <c r="A147" t="s">
-        <v>439</v>
+        <v>405</v>
       </c>
       <c r="B147" t="n">
         <v>2014</v>
@@ -10879,7 +9926,7 @@
     </row>
     <row r="148">
       <c r="A148" t="s">
-        <v>440</v>
+        <v>406</v>
       </c>
       <c r="B148" t="n">
         <v>1996</v>
@@ -10893,7 +9940,7 @@
     </row>
     <row r="149">
       <c r="A149" t="s">
-        <v>441</v>
+        <v>407</v>
       </c>
       <c r="B149" t="n">
         <v>2015</v>
@@ -10907,7 +9954,7 @@
     </row>
     <row r="150">
       <c r="A150" t="s">
-        <v>442</v>
+        <v>408</v>
       </c>
       <c r="B150" t="n">
         <v>2015</v>
@@ -10921,7 +9968,7 @@
     </row>
     <row r="151">
       <c r="A151" t="s">
-        <v>443</v>
+        <v>409</v>
       </c>
       <c r="B151" t="n">
         <v>2015</v>
@@ -10935,7 +9982,7 @@
     </row>
     <row r="152">
       <c r="A152" t="s">
-        <v>444</v>
+        <v>410</v>
       </c>
       <c r="B152" t="n">
         <v>1996</v>
@@ -10949,7 +9996,7 @@
     </row>
     <row r="153">
       <c r="A153" t="s">
-        <v>314</v>
+        <v>284</v>
       </c>
       <c r="B153" t="n">
         <v>2015</v>
@@ -10963,7 +10010,7 @@
     </row>
     <row r="154">
       <c r="A154" t="s">
-        <v>315</v>
+        <v>285</v>
       </c>
       <c r="B154" t="n">
         <v>2015</v>
@@ -10977,7 +10024,7 @@
     </row>
     <row r="155">
       <c r="A155" t="s">
-        <v>316</v>
+        <v>286</v>
       </c>
       <c r="B155" t="n">
         <v>2015</v>
@@ -10991,7 +10038,7 @@
     </row>
     <row r="156">
       <c r="A156" t="s">
-        <v>445</v>
+        <v>411</v>
       </c>
       <c r="B156" t="n">
         <v>1996</v>
@@ -11005,7 +10052,7 @@
     </row>
     <row r="157">
       <c r="A157" t="s">
-        <v>446</v>
+        <v>412</v>
       </c>
       <c r="B157" t="n">
         <v>2016</v>
@@ -11019,7 +10066,7 @@
     </row>
     <row r="158">
       <c r="A158" t="s">
-        <v>447</v>
+        <v>413</v>
       </c>
       <c r="B158" t="n">
         <v>2016</v>
@@ -11033,7 +10080,7 @@
     </row>
     <row r="159">
       <c r="A159" t="s">
-        <v>317</v>
+        <v>287</v>
       </c>
       <c r="B159" t="n">
         <v>2016</v>
@@ -11047,7 +10094,7 @@
     </row>
     <row r="160">
       <c r="A160" t="s">
-        <v>318</v>
+        <v>288</v>
       </c>
       <c r="B160" t="n">
         <v>2016</v>
@@ -11061,7 +10108,7 @@
     </row>
     <row r="161">
       <c r="A161" t="s">
-        <v>448</v>
+        <v>414</v>
       </c>
       <c r="B161" t="n">
         <v>2016</v>
@@ -11075,7 +10122,7 @@
     </row>
     <row r="162">
       <c r="A162" t="s">
-        <v>319</v>
+        <v>289</v>
       </c>
       <c r="B162" t="n">
         <v>2017</v>
@@ -11089,7 +10136,7 @@
     </row>
     <row r="163">
       <c r="A163" t="s">
-        <v>449</v>
+        <v>415</v>
       </c>
       <c r="B163" t="n">
         <v>1997</v>
@@ -11103,7 +10150,7 @@
     </row>
     <row r="164">
       <c r="A164" t="s">
-        <v>450</v>
+        <v>416</v>
       </c>
       <c r="B164" t="n">
         <v>1997</v>
@@ -11117,7 +10164,7 @@
     </row>
     <row r="165">
       <c r="A165" t="s">
-        <v>320</v>
+        <v>290</v>
       </c>
       <c r="B165" t="n">
         <v>2018</v>
@@ -11131,7 +10178,7 @@
     </row>
     <row r="166">
       <c r="A166" t="s">
-        <v>451</v>
+        <v>417</v>
       </c>
       <c r="B166" t="n">
         <v>2018</v>
@@ -11145,7 +10192,7 @@
     </row>
     <row r="167">
       <c r="A167" t="s">
-        <v>452</v>
+        <v>418</v>
       </c>
       <c r="B167" t="n">
         <v>2018</v>
@@ -11159,7 +10206,7 @@
     </row>
     <row r="168">
       <c r="A168" t="s">
-        <v>453</v>
+        <v>419</v>
       </c>
       <c r="B168" t="n">
         <v>2018</v>
@@ -11173,7 +10220,7 @@
     </row>
     <row r="169">
       <c r="A169" t="s">
-        <v>454</v>
+        <v>420</v>
       </c>
       <c r="B169" t="n">
         <v>2018</v>
@@ -11187,7 +10234,7 @@
     </row>
     <row r="170">
       <c r="A170" t="s">
-        <v>321</v>
+        <v>291</v>
       </c>
       <c r="B170" t="n">
         <v>2018</v>
@@ -11201,7 +10248,7 @@
     </row>
     <row r="171">
       <c r="A171" t="s">
-        <v>455</v>
+        <v>421</v>
       </c>
       <c r="B171" t="n">
         <v>2018</v>
@@ -11215,7 +10262,7 @@
     </row>
     <row r="172">
       <c r="A172" t="s">
-        <v>322</v>
+        <v>292</v>
       </c>
       <c r="B172" t="n">
         <v>2018</v>
@@ -11229,7 +10276,7 @@
     </row>
     <row r="173">
       <c r="A173" t="s">
-        <v>456</v>
+        <v>422</v>
       </c>
       <c r="B173" t="n">
         <v>2018</v>
@@ -11243,7 +10290,7 @@
     </row>
     <row r="174">
       <c r="A174" t="s">
-        <v>457</v>
+        <v>423</v>
       </c>
       <c r="B174" t="n">
         <v>1997</v>
@@ -11257,7 +10304,7 @@
     </row>
     <row r="175">
       <c r="A175" t="s">
-        <v>458</v>
+        <v>424</v>
       </c>
       <c r="B175" t="n">
         <v>1997</v>
@@ -11271,7 +10318,7 @@
     </row>
     <row r="176">
       <c r="A176" t="s">
-        <v>323</v>
+        <v>293</v>
       </c>
       <c r="B176" t="n">
         <v>1997</v>
@@ -11285,7 +10332,7 @@
     </row>
     <row r="177">
       <c r="A177" t="s">
-        <v>324</v>
+        <v>294</v>
       </c>
       <c r="B177" t="n">
         <v>2019</v>
@@ -11299,7 +10346,7 @@
     </row>
     <row r="178">
       <c r="A178" t="s">
-        <v>459</v>
+        <v>425</v>
       </c>
       <c r="B178" t="n">
         <v>2019</v>
@@ -11313,7 +10360,7 @@
     </row>
     <row r="179">
       <c r="A179" t="s">
-        <v>325</v>
+        <v>295</v>
       </c>
       <c r="B179" t="n">
         <v>2019</v>
@@ -11327,7 +10374,7 @@
     </row>
     <row r="180">
       <c r="A180" t="s">
-        <v>326</v>
+        <v>296</v>
       </c>
       <c r="B180" t="n">
         <v>2019</v>
@@ -11341,7 +10388,7 @@
     </row>
     <row r="181">
       <c r="A181" t="s">
-        <v>327</v>
+        <v>297</v>
       </c>
       <c r="B181" t="n">
         <v>2019</v>
@@ -11355,7 +10402,7 @@
     </row>
     <row r="182">
       <c r="A182" t="s">
-        <v>328</v>
+        <v>298</v>
       </c>
       <c r="B182" t="n">
         <v>2020</v>
@@ -11369,7 +10416,7 @@
     </row>
     <row r="183">
       <c r="A183" t="s">
-        <v>460</v>
+        <v>426</v>
       </c>
       <c r="B183" t="n">
         <v>2020</v>
@@ -11383,7 +10430,7 @@
     </row>
     <row r="184">
       <c r="A184" t="s">
-        <v>461</v>
+        <v>427</v>
       </c>
       <c r="B184" t="n">
         <v>2020</v>
@@ -11397,7 +10444,7 @@
     </row>
     <row r="185">
       <c r="A185" t="s">
-        <v>462</v>
+        <v>428</v>
       </c>
       <c r="B185" t="n">
         <v>2020</v>
@@ -11411,7 +10458,7 @@
     </row>
     <row r="186">
       <c r="A186" t="s">
-        <v>329</v>
+        <v>299</v>
       </c>
       <c r="B186" t="n">
         <v>2020</v>
@@ -11425,7 +10472,7 @@
     </row>
     <row r="187">
       <c r="A187" t="s">
-        <v>330</v>
+        <v>300</v>
       </c>
       <c r="B187" t="n">
         <v>2020</v>
@@ -11439,7 +10486,7 @@
     </row>
     <row r="188">
       <c r="A188" t="s">
-        <v>331</v>
+        <v>301</v>
       </c>
       <c r="B188" t="n">
         <v>2020</v>
@@ -11453,7 +10500,7 @@
     </row>
     <row r="189">
       <c r="A189" t="s">
-        <v>463</v>
+        <v>429</v>
       </c>
       <c r="B189" t="n">
         <v>2020</v>
@@ -11467,7 +10514,7 @@
     </row>
     <row r="190">
       <c r="A190" t="s">
-        <v>464</v>
+        <v>430</v>
       </c>
       <c r="B190" t="n">
         <v>2021</v>
@@ -11481,7 +10528,7 @@
     </row>
     <row r="191">
       <c r="A191" t="s">
-        <v>465</v>
+        <v>431</v>
       </c>
       <c r="B191" t="n">
         <v>2021</v>
@@ -11495,7 +10542,7 @@
     </row>
     <row r="192">
       <c r="A192" t="s">
-        <v>466</v>
+        <v>432</v>
       </c>
       <c r="B192" t="n">
         <v>2021</v>
@@ -11509,7 +10556,7 @@
     </row>
     <row r="193">
       <c r="A193" t="s">
-        <v>467</v>
+        <v>433</v>
       </c>
       <c r="B193" t="n">
         <v>2021</v>
@@ -11523,7 +10570,7 @@
     </row>
     <row r="194">
       <c r="A194" t="s">
-        <v>468</v>
+        <v>434</v>
       </c>
       <c r="B194" t="n">
         <v>2021</v>
@@ -11537,7 +10584,7 @@
     </row>
     <row r="195">
       <c r="A195" t="s">
-        <v>469</v>
+        <v>435</v>
       </c>
       <c r="B195" t="n">
         <v>2021</v>
@@ -11551,7 +10598,7 @@
     </row>
     <row r="196">
       <c r="A196" t="s">
-        <v>470</v>
+        <v>436</v>
       </c>
       <c r="B196" t="n">
         <v>2021</v>
@@ -11565,7 +10612,7 @@
     </row>
     <row r="197">
       <c r="A197" t="s">
-        <v>332</v>
+        <v>437</v>
       </c>
       <c r="B197" t="n">
         <v>2022</v>
@@ -11579,7 +10626,7 @@
     </row>
     <row r="198">
       <c r="A198" t="s">
-        <v>333</v>
+        <v>438</v>
       </c>
       <c r="B198" t="n">
         <v>2022</v>
@@ -11593,7 +10640,7 @@
     </row>
     <row r="199">
       <c r="A199" t="s">
-        <v>334</v>
+        <v>439</v>
       </c>
       <c r="B199" t="n">
         <v>2022</v>
@@ -11607,197 +10654,71 @@
     </row>
     <row r="200">
       <c r="A200" t="s">
-        <v>335</v>
+        <v>308</v>
       </c>
       <c r="B200" t="n">
-        <v>2023</v>
+        <v>1999</v>
       </c>
       <c r="C200" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D200" t="n">
-        <v>293</v>
+        <v>411</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="s">
-        <v>336</v>
+        <v>309</v>
       </c>
       <c r="B201" t="n">
-        <v>2023</v>
+        <v>1999</v>
       </c>
       <c r="C201" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D201" t="n">
-        <v>209</v>
+        <v>275</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="s">
-        <v>337</v>
+        <v>310</v>
       </c>
       <c r="B202" t="n">
-        <v>2023</v>
+        <v>1999</v>
       </c>
       <c r="C202" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D202" t="n">
-        <v>212</v>
+        <v>262</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="s">
-        <v>338</v>
+        <v>311</v>
       </c>
       <c r="B203" t="n">
-        <v>2023</v>
+        <v>1999</v>
       </c>
       <c r="C203" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D203" t="n">
-        <v>195</v>
+        <v>221</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="s">
-        <v>471</v>
+        <v>312</v>
       </c>
       <c r="B204" t="n">
-        <v>2023</v>
+        <v>1999</v>
       </c>
       <c r="C204" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D204" t="n">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="205">
-      <c r="A205" t="s">
-        <v>472</v>
-      </c>
-      <c r="B205" t="n">
-        <v>2023</v>
-      </c>
-      <c r="C205" t="n">
-        <v>7</v>
-      </c>
-      <c r="D205" t="n">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="206">
-      <c r="A206" t="s">
-        <v>339</v>
-      </c>
-      <c r="B206" t="n">
-        <v>2023</v>
-      </c>
-      <c r="C206" t="n">
-        <v>9</v>
-      </c>
-      <c r="D206" t="n">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="207">
-      <c r="A207" t="s">
-        <v>340</v>
-      </c>
-      <c r="B207" t="n">
-        <v>2023</v>
-      </c>
-      <c r="C207" t="n">
-        <v>9</v>
-      </c>
-      <c r="D207" t="n">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="208">
-      <c r="A208" t="s">
-        <v>341</v>
-      </c>
-      <c r="B208" t="n">
-        <v>2023</v>
-      </c>
-      <c r="C208" t="n">
-        <v>9</v>
-      </c>
-      <c r="D208" t="n">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="209">
-      <c r="A209" t="s">
-        <v>342</v>
-      </c>
-      <c r="B209" t="n">
-        <v>1999</v>
-      </c>
-      <c r="C209" t="n">
-        <v>5</v>
-      </c>
-      <c r="D209" t="n">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="210">
-      <c r="A210" t="s">
-        <v>343</v>
-      </c>
-      <c r="B210" t="n">
-        <v>1999</v>
-      </c>
-      <c r="C210" t="n">
-        <v>7</v>
-      </c>
-      <c r="D210" t="n">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="211">
-      <c r="A211" t="s">
-        <v>344</v>
-      </c>
-      <c r="B211" t="n">
-        <v>1999</v>
-      </c>
-      <c r="C211" t="n">
-        <v>7</v>
-      </c>
-      <c r="D211" t="n">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="212">
-      <c r="A212" t="s">
-        <v>345</v>
-      </c>
-      <c r="B212" t="n">
-        <v>1999</v>
-      </c>
-      <c r="C212" t="n">
-        <v>9</v>
-      </c>
-      <c r="D212" t="n">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="213">
-      <c r="A213" t="s">
-        <v>346</v>
-      </c>
-      <c r="B213" t="n">
-        <v>1999</v>
-      </c>
-      <c r="C213" t="n">
-        <v>9</v>
-      </c>
-      <c r="D213" t="n">
         <v>200</v>
       </c>
     </row>
@@ -11831,7 +10752,7 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>473</v>
+        <v>440</v>
       </c>
       <c r="B2"/>
       <c r="C2"/>
@@ -11841,7 +10762,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>474</v>
+        <v>441</v>
       </c>
       <c r="B3"/>
       <c r="C3"/>
@@ -11851,7 +10772,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>347</v>
+        <v>313</v>
       </c>
       <c r="B4" t="n">
         <v>2000</v>
@@ -11865,7 +10786,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>348</v>
+        <v>314</v>
       </c>
       <c r="B5" t="n">
         <v>2000</v>
@@ -11879,7 +10800,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>349</v>
+        <v>315</v>
       </c>
       <c r="B6" t="n">
         <v>2000</v>
@@ -11893,7 +10814,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>350</v>
+        <v>316</v>
       </c>
       <c r="B7" t="n">
         <v>2000</v>
@@ -11935,7 +10856,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>351</v>
+        <v>317</v>
       </c>
       <c r="B10" t="n">
         <v>2001</v>
@@ -11949,7 +10870,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>352</v>
+        <v>318</v>
       </c>
       <c r="B11" t="n">
         <v>2001</v>
@@ -11963,7 +10884,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>353</v>
+        <v>319</v>
       </c>
       <c r="B12" t="n">
         <v>2002</v>
@@ -11977,7 +10898,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>354</v>
+        <v>320</v>
       </c>
       <c r="B13" t="n">
         <v>2002</v>
@@ -11991,7 +10912,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>355</v>
+        <v>321</v>
       </c>
       <c r="B14" t="n">
         <v>2002</v>
@@ -12005,7 +10926,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>356</v>
+        <v>322</v>
       </c>
       <c r="B15" t="n">
         <v>1992</v>
@@ -12019,7 +10940,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>357</v>
+        <v>323</v>
       </c>
       <c r="B16" t="n">
         <v>2002</v>
@@ -12033,7 +10954,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>358</v>
+        <v>324</v>
       </c>
       <c r="B17" t="n">
         <v>1992</v>
@@ -12047,7 +10968,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>359</v>
+        <v>325</v>
       </c>
       <c r="B18" t="n">
         <v>2002</v>
@@ -12061,7 +10982,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>360</v>
+        <v>326</v>
       </c>
       <c r="B19" t="n">
         <v>2002</v>
@@ -12159,7 +11080,7 @@
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>361</v>
+        <v>327</v>
       </c>
       <c r="B26" t="n">
         <v>2003</v>
@@ -12173,7 +11094,7 @@
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>362</v>
+        <v>328</v>
       </c>
       <c r="B27" t="n">
         <v>2003</v>
@@ -12187,7 +11108,7 @@
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>363</v>
+        <v>329</v>
       </c>
       <c r="B28" t="n">
         <v>2003</v>
@@ -12201,7 +11122,7 @@
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>364</v>
+        <v>330</v>
       </c>
       <c r="B29" t="n">
         <v>2003</v>
@@ -12397,7 +11318,7 @@
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>365</v>
+        <v>331</v>
       </c>
       <c r="B43" t="n">
         <v>2006</v>
@@ -12411,7 +11332,7 @@
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>366</v>
+        <v>332</v>
       </c>
       <c r="B44" t="n">
         <v>2006</v>
@@ -12425,7 +11346,7 @@
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>367</v>
+        <v>333</v>
       </c>
       <c r="B45" t="n">
         <v>2006</v>
@@ -12439,7 +11360,7 @@
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>368</v>
+        <v>334</v>
       </c>
       <c r="B46" t="n">
         <v>2006</v>
@@ -12453,7 +11374,7 @@
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>369</v>
+        <v>335</v>
       </c>
       <c r="B47" t="n">
         <v>2006</v>
@@ -12467,7 +11388,7 @@
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>370</v>
+        <v>336</v>
       </c>
       <c r="B48" t="n">
         <v>2006</v>
@@ -12481,7 +11402,7 @@
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>371</v>
+        <v>337</v>
       </c>
       <c r="B49" t="n">
         <v>2006</v>
@@ -12495,7 +11416,7 @@
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>372</v>
+        <v>338</v>
       </c>
       <c r="B50" t="n">
         <v>2006</v>
@@ -12509,7 +11430,7 @@
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>373</v>
+        <v>339</v>
       </c>
       <c r="B51" t="n">
         <v>2006</v>
@@ -12537,7 +11458,7 @@
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>374</v>
+        <v>340</v>
       </c>
       <c r="B53" t="n">
         <v>2006</v>
@@ -12551,7 +11472,7 @@
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>375</v>
+        <v>341</v>
       </c>
       <c r="B54" t="n">
         <v>2006</v>
@@ -12565,7 +11486,7 @@
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>376</v>
+        <v>342</v>
       </c>
       <c r="B55" t="n">
         <v>2006</v>
@@ -12579,7 +11500,7 @@
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>377</v>
+        <v>343</v>
       </c>
       <c r="B56" t="n">
         <v>2006</v>
@@ -12593,7 +11514,7 @@
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>378</v>
+        <v>344</v>
       </c>
       <c r="B57" t="n">
         <v>2006</v>
@@ -12607,7 +11528,7 @@
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>379</v>
+        <v>345</v>
       </c>
       <c r="B58" t="n">
         <v>2006</v>
@@ -12621,7 +11542,7 @@
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>380</v>
+        <v>346</v>
       </c>
       <c r="B59" t="n">
         <v>2006</v>
@@ -12635,7 +11556,7 @@
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>381</v>
+        <v>347</v>
       </c>
       <c r="B60" t="n">
         <v>2006</v>
@@ -12803,7 +11724,7 @@
     </row>
     <row r="72">
       <c r="A72" t="s">
-        <v>383</v>
+        <v>349</v>
       </c>
       <c r="B72" t="n">
         <v>2007</v>
@@ -12817,7 +11738,7 @@
     </row>
     <row r="73">
       <c r="A73" t="s">
-        <v>384</v>
+        <v>350</v>
       </c>
       <c r="B73" t="n">
         <v>2007</v>
@@ -12831,7 +11752,7 @@
     </row>
     <row r="74">
       <c r="A74" t="s">
-        <v>385</v>
+        <v>351</v>
       </c>
       <c r="B74" t="n">
         <v>2007</v>
@@ -12845,7 +11766,7 @@
     </row>
     <row r="75">
       <c r="A75" t="s">
-        <v>386</v>
+        <v>352</v>
       </c>
       <c r="B75" t="n">
         <v>2007</v>
@@ -12859,7 +11780,7 @@
     </row>
     <row r="76">
       <c r="A76" t="s">
-        <v>387</v>
+        <v>353</v>
       </c>
       <c r="B76" t="n">
         <v>2007</v>
@@ -12873,7 +11794,7 @@
     </row>
     <row r="77">
       <c r="A77" t="s">
-        <v>388</v>
+        <v>354</v>
       </c>
       <c r="B77" t="n">
         <v>2007</v>
@@ -12887,7 +11808,7 @@
     </row>
     <row r="78">
       <c r="A78" t="s">
-        <v>389</v>
+        <v>355</v>
       </c>
       <c r="B78" t="n">
         <v>2007</v>
@@ -12901,7 +11822,7 @@
     </row>
     <row r="79">
       <c r="A79" t="s">
-        <v>390</v>
+        <v>356</v>
       </c>
       <c r="B79" t="n">
         <v>2007</v>
@@ -12915,7 +11836,7 @@
     </row>
     <row r="80">
       <c r="A80" t="s">
-        <v>391</v>
+        <v>357</v>
       </c>
       <c r="B80" t="n">
         <v>2007</v>
@@ -12929,7 +11850,7 @@
     </row>
     <row r="81">
       <c r="A81" t="s">
-        <v>392</v>
+        <v>358</v>
       </c>
       <c r="B81" t="n">
         <v>2007</v>
@@ -12957,7 +11878,7 @@
     </row>
     <row r="83">
       <c r="A83" t="s">
-        <v>393</v>
+        <v>359</v>
       </c>
       <c r="B83" t="n">
         <v>2008</v>
@@ -12971,7 +11892,7 @@
     </row>
     <row r="84">
       <c r="A84" t="s">
-        <v>394</v>
+        <v>360</v>
       </c>
       <c r="B84" t="n">
         <v>2008</v>
@@ -12985,7 +11906,7 @@
     </row>
     <row r="85">
       <c r="A85" t="s">
-        <v>395</v>
+        <v>361</v>
       </c>
       <c r="B85" t="n">
         <v>2008</v>
@@ -12999,7 +11920,7 @@
     </row>
     <row r="86">
       <c r="A86" t="s">
-        <v>396</v>
+        <v>362</v>
       </c>
       <c r="B86" t="n">
         <v>2008</v>
@@ -13013,7 +11934,7 @@
     </row>
     <row r="87">
       <c r="A87" t="s">
-        <v>397</v>
+        <v>363</v>
       </c>
       <c r="B87" t="n">
         <v>2008</v>
@@ -13027,7 +11948,7 @@
     </row>
     <row r="88">
       <c r="A88" t="s">
-        <v>398</v>
+        <v>364</v>
       </c>
       <c r="B88" t="n">
         <v>2008</v>
@@ -13209,7 +12130,7 @@
     </row>
     <row r="101">
       <c r="A101" t="s">
-        <v>399</v>
+        <v>365</v>
       </c>
       <c r="B101" t="n">
         <v>2010</v>
@@ -13223,7 +12144,7 @@
     </row>
     <row r="102">
       <c r="A102" t="s">
-        <v>400</v>
+        <v>366</v>
       </c>
       <c r="B102" t="n">
         <v>2010</v>
@@ -13237,7 +12158,7 @@
     </row>
     <row r="103">
       <c r="A103" t="s">
-        <v>401</v>
+        <v>367</v>
       </c>
       <c r="B103" t="n">
         <v>2010</v>
@@ -13251,7 +12172,7 @@
     </row>
     <row r="104">
       <c r="A104" t="s">
-        <v>402</v>
+        <v>368</v>
       </c>
       <c r="B104" t="n">
         <v>2010</v>
@@ -13265,7 +12186,7 @@
     </row>
     <row r="105">
       <c r="A105" t="s">
-        <v>403</v>
+        <v>369</v>
       </c>
       <c r="B105" t="n">
         <v>2010</v>
@@ -13279,7 +12200,7 @@
     </row>
     <row r="106">
       <c r="A106" t="s">
-        <v>404</v>
+        <v>370</v>
       </c>
       <c r="B106" t="n">
         <v>2010</v>
@@ -13293,7 +12214,7 @@
     </row>
     <row r="107">
       <c r="A107" t="s">
-        <v>405</v>
+        <v>371</v>
       </c>
       <c r="B107" t="n">
         <v>2010</v>
@@ -13307,7 +12228,7 @@
     </row>
     <row r="108">
       <c r="A108" t="s">
-        <v>406</v>
+        <v>372</v>
       </c>
       <c r="B108" t="n">
         <v>2010</v>
@@ -13321,7 +12242,7 @@
     </row>
     <row r="109">
       <c r="A109" t="s">
-        <v>407</v>
+        <v>373</v>
       </c>
       <c r="B109" t="n">
         <v>1994</v>
@@ -13335,7 +12256,7 @@
     </row>
     <row r="110">
       <c r="A110" t="s">
-        <v>408</v>
+        <v>374</v>
       </c>
       <c r="B110" t="n">
         <v>2010</v>
@@ -13349,7 +12270,7 @@
     </row>
     <row r="111">
       <c r="A111" t="s">
-        <v>409</v>
+        <v>375</v>
       </c>
       <c r="B111" t="n">
         <v>2010</v>
@@ -13363,7 +12284,7 @@
     </row>
     <row r="112">
       <c r="A112" t="s">
-        <v>410</v>
+        <v>376</v>
       </c>
       <c r="B112" t="n">
         <v>2010</v>
@@ -13377,7 +12298,7 @@
     </row>
     <row r="113">
       <c r="A113" t="s">
-        <v>411</v>
+        <v>377</v>
       </c>
       <c r="B113" t="n">
         <v>2010</v>
@@ -13391,7 +12312,7 @@
     </row>
     <row r="114">
       <c r="A114" t="s">
-        <v>412</v>
+        <v>378</v>
       </c>
       <c r="B114" t="n">
         <v>2010</v>
@@ -13405,7 +12326,7 @@
     </row>
     <row r="115">
       <c r="A115" t="s">
-        <v>413</v>
+        <v>379</v>
       </c>
       <c r="B115" t="n">
         <v>2010</v>
@@ -13419,7 +12340,7 @@
     </row>
     <row r="116">
       <c r="A116" t="s">
-        <v>414</v>
+        <v>380</v>
       </c>
       <c r="B116" t="n">
         <v>2010</v>
@@ -13433,7 +12354,7 @@
     </row>
     <row r="117">
       <c r="A117" t="s">
-        <v>415</v>
+        <v>381</v>
       </c>
       <c r="B117" t="n">
         <v>2010</v>
@@ -13447,7 +12368,7 @@
     </row>
     <row r="118">
       <c r="A118" t="s">
-        <v>416</v>
+        <v>382</v>
       </c>
       <c r="B118" t="n">
         <v>2010</v>
@@ -13461,7 +12382,7 @@
     </row>
     <row r="119">
       <c r="A119" t="s">
-        <v>417</v>
+        <v>383</v>
       </c>
       <c r="B119" t="n">
         <v>2010</v>
@@ -13475,7 +12396,7 @@
     </row>
     <row r="120">
       <c r="A120" t="s">
-        <v>418</v>
+        <v>384</v>
       </c>
       <c r="B120" t="n">
         <v>2010</v>
@@ -13489,7 +12410,7 @@
     </row>
     <row r="121">
       <c r="A121" t="s">
-        <v>419</v>
+        <v>385</v>
       </c>
       <c r="B121" t="n">
         <v>1994</v>
@@ -13503,7 +12424,7 @@
     </row>
     <row r="122">
       <c r="A122" t="s">
-        <v>420</v>
+        <v>386</v>
       </c>
       <c r="B122" t="n">
         <v>2011</v>
@@ -13517,7 +12438,7 @@
     </row>
     <row r="123">
       <c r="A123" t="s">
-        <v>421</v>
+        <v>387</v>
       </c>
       <c r="B123" t="n">
         <v>2011</v>
@@ -13531,7 +12452,7 @@
     </row>
     <row r="124">
       <c r="A124" t="s">
-        <v>422</v>
+        <v>388</v>
       </c>
       <c r="B124" t="n">
         <v>2011</v>
@@ -13559,7 +12480,7 @@
     </row>
     <row r="126">
       <c r="A126" t="s">
-        <v>423</v>
+        <v>389</v>
       </c>
       <c r="B126" t="n">
         <v>1995</v>
@@ -13573,7 +12494,7 @@
     </row>
     <row r="127">
       <c r="A127" t="s">
-        <v>424</v>
+        <v>390</v>
       </c>
       <c r="B127" t="n">
         <v>2012</v>
@@ -13587,7 +12508,7 @@
     </row>
     <row r="128">
       <c r="A128" t="s">
-        <v>425</v>
+        <v>391</v>
       </c>
       <c r="B128" t="n">
         <v>2012</v>
@@ -13601,7 +12522,7 @@
     </row>
     <row r="129">
       <c r="A129" t="s">
-        <v>426</v>
+        <v>392</v>
       </c>
       <c r="B129" t="n">
         <v>2012</v>
@@ -13615,7 +12536,7 @@
     </row>
     <row r="130">
       <c r="A130" t="s">
-        <v>427</v>
+        <v>393</v>
       </c>
       <c r="B130" t="n">
         <v>2012</v>
@@ -13629,7 +12550,7 @@
     </row>
     <row r="131">
       <c r="A131" t="s">
-        <v>428</v>
+        <v>394</v>
       </c>
       <c r="B131" t="n">
         <v>2012</v>
@@ -13643,7 +12564,7 @@
     </row>
     <row r="132">
       <c r="A132" t="s">
-        <v>429</v>
+        <v>395</v>
       </c>
       <c r="B132" t="n">
         <v>2012</v>
@@ -13657,7 +12578,7 @@
     </row>
     <row r="133">
       <c r="A133" t="s">
-        <v>430</v>
+        <v>396</v>
       </c>
       <c r="B133" t="n">
         <v>2012</v>
@@ -13713,7 +12634,7 @@
     </row>
     <row r="137">
       <c r="A137" t="s">
-        <v>431</v>
+        <v>397</v>
       </c>
       <c r="B137" t="n">
         <v>2013</v>
@@ -13727,7 +12648,7 @@
     </row>
     <row r="138">
       <c r="A138" t="s">
-        <v>432</v>
+        <v>398</v>
       </c>
       <c r="B138" t="n">
         <v>2013</v>
@@ -13755,7 +12676,7 @@
     </row>
     <row r="140">
       <c r="A140" t="s">
-        <v>433</v>
+        <v>399</v>
       </c>
       <c r="B140" t="n">
         <v>2014</v>
@@ -13769,7 +12690,7 @@
     </row>
     <row r="141">
       <c r="A141" t="s">
-        <v>434</v>
+        <v>400</v>
       </c>
       <c r="B141" t="n">
         <v>2014</v>
@@ -13783,7 +12704,7 @@
     </row>
     <row r="142">
       <c r="A142" t="s">
-        <v>435</v>
+        <v>401</v>
       </c>
       <c r="B142" t="n">
         <v>2014</v>
@@ -13797,7 +12718,7 @@
     </row>
     <row r="143">
       <c r="A143" t="s">
-        <v>436</v>
+        <v>402</v>
       </c>
       <c r="B143" t="n">
         <v>2014</v>
@@ -13811,7 +12732,7 @@
     </row>
     <row r="144">
       <c r="A144" t="s">
-        <v>437</v>
+        <v>403</v>
       </c>
       <c r="B144" t="n">
         <v>2014</v>
@@ -13825,7 +12746,7 @@
     </row>
     <row r="145">
       <c r="A145" t="s">
-        <v>438</v>
+        <v>404</v>
       </c>
       <c r="B145" t="n">
         <v>2014</v>
@@ -13839,7 +12760,7 @@
     </row>
     <row r="146">
       <c r="A146" t="s">
-        <v>439</v>
+        <v>405</v>
       </c>
       <c r="B146" t="n">
         <v>2014</v>
@@ -13853,7 +12774,7 @@
     </row>
     <row r="147">
       <c r="A147" t="s">
-        <v>440</v>
+        <v>406</v>
       </c>
       <c r="B147" t="n">
         <v>1996</v>
@@ -13867,7 +12788,7 @@
     </row>
     <row r="148">
       <c r="A148" t="s">
-        <v>441</v>
+        <v>407</v>
       </c>
       <c r="B148" t="n">
         <v>2015</v>
@@ -13881,7 +12802,7 @@
     </row>
     <row r="149">
       <c r="A149" t="s">
-        <v>442</v>
+        <v>408</v>
       </c>
       <c r="B149" t="n">
         <v>2015</v>
@@ -13895,7 +12816,7 @@
     </row>
     <row r="150">
       <c r="A150" t="s">
-        <v>443</v>
+        <v>409</v>
       </c>
       <c r="B150" t="n">
         <v>2015</v>
@@ -13909,7 +12830,7 @@
     </row>
     <row r="151">
       <c r="A151" t="s">
-        <v>444</v>
+        <v>410</v>
       </c>
       <c r="B151" t="n">
         <v>1996</v>
@@ -13923,7 +12844,7 @@
     </row>
     <row r="152">
       <c r="A152" t="s">
-        <v>445</v>
+        <v>411</v>
       </c>
       <c r="B152" t="n">
         <v>1996</v>
@@ -13993,7 +12914,7 @@
     </row>
     <row r="157">
       <c r="A157" t="s">
-        <v>446</v>
+        <v>412</v>
       </c>
       <c r="B157" t="n">
         <v>2016</v>
@@ -14007,7 +12928,7 @@
     </row>
     <row r="158">
       <c r="A158" t="s">
-        <v>447</v>
+        <v>413</v>
       </c>
       <c r="B158" t="n">
         <v>2016</v>
@@ -14021,7 +12942,7 @@
     </row>
     <row r="159">
       <c r="A159" t="s">
-        <v>448</v>
+        <v>414</v>
       </c>
       <c r="B159" t="n">
         <v>2016</v>
@@ -14035,7 +12956,7 @@
     </row>
     <row r="160">
       <c r="A160" t="s">
-        <v>449</v>
+        <v>415</v>
       </c>
       <c r="B160" t="n">
         <v>1997</v>
@@ -14049,7 +12970,7 @@
     </row>
     <row r="161">
       <c r="A161" t="s">
-        <v>450</v>
+        <v>416</v>
       </c>
       <c r="B161" t="n">
         <v>1997</v>
@@ -14091,7 +13012,7 @@
     </row>
     <row r="164">
       <c r="A164" t="s">
-        <v>451</v>
+        <v>417</v>
       </c>
       <c r="B164" t="n">
         <v>2018</v>
@@ -14105,7 +13026,7 @@
     </row>
     <row r="165">
       <c r="A165" t="s">
-        <v>452</v>
+        <v>418</v>
       </c>
       <c r="B165" t="n">
         <v>2018</v>
@@ -14119,7 +13040,7 @@
     </row>
     <row r="166">
       <c r="A166" t="s">
-        <v>453</v>
+        <v>419</v>
       </c>
       <c r="B166" t="n">
         <v>2018</v>
@@ -14133,7 +13054,7 @@
     </row>
     <row r="167">
       <c r="A167" t="s">
-        <v>454</v>
+        <v>420</v>
       </c>
       <c r="B167" t="n">
         <v>2018</v>
@@ -14147,7 +13068,7 @@
     </row>
     <row r="168">
       <c r="A168" t="s">
-        <v>455</v>
+        <v>421</v>
       </c>
       <c r="B168" t="n">
         <v>2018</v>
@@ -14161,7 +13082,7 @@
     </row>
     <row r="169">
       <c r="A169" t="s">
-        <v>456</v>
+        <v>422</v>
       </c>
       <c r="B169" t="n">
         <v>2018</v>
@@ -14175,7 +13096,7 @@
     </row>
     <row r="170">
       <c r="A170" t="s">
-        <v>457</v>
+        <v>423</v>
       </c>
       <c r="B170" t="n">
         <v>1997</v>
@@ -14189,7 +13110,7 @@
     </row>
     <row r="171">
       <c r="A171" t="s">
-        <v>458</v>
+        <v>424</v>
       </c>
       <c r="B171" t="n">
         <v>1997</v>
@@ -14203,7 +13124,7 @@
     </row>
     <row r="172">
       <c r="A172" t="s">
-        <v>459</v>
+        <v>425</v>
       </c>
       <c r="B172" t="n">
         <v>2019</v>
@@ -14441,7 +13362,7 @@
     </row>
     <row r="189">
       <c r="A189" t="s">
-        <v>460</v>
+        <v>426</v>
       </c>
       <c r="B189" t="n">
         <v>2020</v>
@@ -14455,7 +13376,7 @@
     </row>
     <row r="190">
       <c r="A190" t="s">
-        <v>461</v>
+        <v>427</v>
       </c>
       <c r="B190" t="n">
         <v>2020</v>
@@ -14469,7 +13390,7 @@
     </row>
     <row r="191">
       <c r="A191" t="s">
-        <v>463</v>
+        <v>429</v>
       </c>
       <c r="B191" t="n">
         <v>2020</v>
@@ -14567,7 +13488,7 @@
     </row>
     <row r="198">
       <c r="A198" t="s">
-        <v>464</v>
+        <v>430</v>
       </c>
       <c r="B198" t="n">
         <v>2021</v>
@@ -14581,7 +13502,7 @@
     </row>
     <row r="199">
       <c r="A199" t="s">
-        <v>465</v>
+        <v>431</v>
       </c>
       <c r="B199" t="n">
         <v>2021</v>
@@ -14595,7 +13516,7 @@
     </row>
     <row r="200">
       <c r="A200" t="s">
-        <v>466</v>
+        <v>432</v>
       </c>
       <c r="B200" t="n">
         <v>2021</v>
@@ -14609,7 +13530,7 @@
     </row>
     <row r="201">
       <c r="A201" t="s">
-        <v>467</v>
+        <v>433</v>
       </c>
       <c r="B201" t="n">
         <v>2021</v>
@@ -14623,7 +13544,7 @@
     </row>
     <row r="202">
       <c r="A202" t="s">
-        <v>468</v>
+        <v>434</v>
       </c>
       <c r="B202" t="n">
         <v>2021</v>
@@ -14637,7 +13558,7 @@
     </row>
     <row r="203">
       <c r="A203" t="s">
-        <v>469</v>
+        <v>435</v>
       </c>
       <c r="B203" t="n">
         <v>2021</v>
@@ -14651,7 +13572,7 @@
     </row>
     <row r="204">
       <c r="A204" t="s">
-        <v>470</v>
+        <v>436</v>
       </c>
       <c r="B204" t="n">
         <v>2021</v>
@@ -14665,127 +13586,29 @@
     </row>
     <row r="205">
       <c r="A205" t="s">
-        <v>471</v>
+        <v>225</v>
       </c>
       <c r="B205" t="n">
-        <v>2023</v>
+        <v>1999</v>
       </c>
       <c r="C205" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D205" t="n">
-        <v>108</v>
+        <v>211</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="s">
-        <v>472</v>
+        <v>226</v>
       </c>
       <c r="B206" t="n">
-        <v>2023</v>
+        <v>1999</v>
       </c>
       <c r="C206" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="D206" t="n">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="207">
-      <c r="A207" t="s">
-        <v>232</v>
-      </c>
-      <c r="B207" t="n">
-        <v>2023</v>
-      </c>
-      <c r="C207" t="n">
-        <v>10</v>
-      </c>
-      <c r="D207" t="n">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="208">
-      <c r="A208" t="s">
-        <v>234</v>
-      </c>
-      <c r="B208" t="n">
-        <v>2023</v>
-      </c>
-      <c r="C208" t="n">
-        <v>11</v>
-      </c>
-      <c r="D208" t="n">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="209">
-      <c r="A209" t="s">
-        <v>235</v>
-      </c>
-      <c r="B209" t="n">
-        <v>2023</v>
-      </c>
-      <c r="C209" t="n">
-        <v>11</v>
-      </c>
-      <c r="D209" t="n">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="210">
-      <c r="A210" t="s">
-        <v>236</v>
-      </c>
-      <c r="B210" t="n">
-        <v>2023</v>
-      </c>
-      <c r="C210" t="n">
-        <v>11</v>
-      </c>
-      <c r="D210" t="n">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="211">
-      <c r="A211" t="s">
-        <v>240</v>
-      </c>
-      <c r="B211" t="n">
-        <v>2024</v>
-      </c>
-      <c r="C211" t="n">
-        <v>1</v>
-      </c>
-      <c r="D211" t="n">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="212">
-      <c r="A212" t="s">
-        <v>255</v>
-      </c>
-      <c r="B212" t="n">
-        <v>1999</v>
-      </c>
-      <c r="C212" t="n">
-        <v>2</v>
-      </c>
-      <c r="D212" t="n">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="213">
-      <c r="A213" t="s">
-        <v>256</v>
-      </c>
-      <c r="B213" t="n">
-        <v>1999</v>
-      </c>
-      <c r="C213" t="n">
-        <v>2</v>
-      </c>
-      <c r="D213" t="n">
         <v>240</v>
       </c>
     </row>
